--- a/product-definitions/spreadsheet/aerosol-backscatter-radial-winds.xlsx
+++ b/product-definitions/spreadsheet/aerosol-backscatter-radial-winds.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="dimensions-specific" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="variables-specific" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="global-attributes-specific" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="dimensions-specific" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="variables-specific" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,65 +13,203 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="105">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Compliance checking rules</t>
+  </si>
+  <si>
+    <t>Convention Providence</t>
+  </si>
+  <si>
+    <t>laser_wavelength</t>
+  </si>
+  <si>
+    <t>laser wavelength</t>
+  </si>
+  <si>
+    <t>1550 nm</t>
+  </si>
+  <si>
+    <t>String: min 3 characters</t>
+  </si>
+  <si>
+    <t>laser_pulse_energy</t>
+  </si>
+  <si>
+    <t>laser energy</t>
+  </si>
+  <si>
+    <t>1.0e-05 J</t>
+  </si>
+  <si>
+    <t>pulse_repetition_frequency</t>
+  </si>
+  <si>
+    <t>pulse repetion frequency</t>
+  </si>
+  <si>
+    <t>15000 s-1</t>
+  </si>
+  <si>
+    <t>pulses_per_ray</t>
+  </si>
+  <si>
+    <t>no pulses averged to give a ray (500 - 1500)</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>rays_per_point</t>
+  </si>
+  <si>
+    <t>number of ray averaged to give a measurement</t>
+  </si>
+  <si>
+    <t>lens_diameter</t>
+  </si>
+  <si>
+    <t>lens diameter</t>
+  </si>
+  <si>
+    <t>0.08 m</t>
+  </si>
+  <si>
+    <t>beam_divergence</t>
+  </si>
+  <si>
+    <t>beam divergence</t>
+  </si>
+  <si>
+    <t>0.00189 degrees</t>
+  </si>
+  <si>
+    <t>pulse_length</t>
+  </si>
+  <si>
+    <t>pulse length</t>
+  </si>
+  <si>
+    <t>2.0e-07 s</t>
+  </si>
+  <si>
+    <t>sampling_frequency</t>
+  </si>
+  <si>
+    <t>digitisation frequency (10, 15, or 50MHz)</t>
+  </si>
+  <si>
+    <t>1.5e+07 s-1</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>focus (300m, 500m, 800m, 1000m, 1250m, 1500m, 1750m, 2000m or Inf)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>velocity_resolution</t>
+  </si>
+  <si>
+    <t>velocity resolution</t>
+  </si>
+  <si>
+    <t>0.0382 m s-1</t>
+  </si>
+  <si>
+    <t>number_of_gates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of gates </t>
+  </si>
+  <si>
+    <t>gate_length</t>
+  </si>
+  <si>
+    <t>gate length</t>
+  </si>
+  <si>
+    <t>30 m</t>
+  </si>
+  <si>
+    <t>fft_length</t>
+  </si>
+  <si>
+    <t>doppler FFT length</t>
+  </si>
+  <si>
+    <t>maximum_range</t>
+  </si>
+  <si>
+    <t>maximum measurement range</t>
+  </si>
+  <si>
+    <t>10 000 m</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>index_of_angle</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
+    <t>index_of_range</t>
+  </si>
+  <si>
+    <t>&lt;r&gt;</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Proposed name</t>
   </si>
   <si>
     <t>example value</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>index_of_angle</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
-    <t>&lt;i&gt;</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
     <t>float32</t>
   </si>
   <si>
-    <t>index_of_range</t>
-  </si>
-  <si>
-    <t>&lt;r&gt;</t>
-  </si>
-  <si>
     <t>dimension</t>
   </si>
   <si>
     <t>time, index_of_range, index_of_angle</t>
   </si>
   <si>
-    <t>for fixed scans dimesion is just time, index_of_range</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -92,40 +231,43 @@
     <t>&lt;derived from file&gt;</t>
   </si>
   <si>
-    <t>centre of nearest gate</t>
-  </si>
-  <si>
     <t>valid_max</t>
   </si>
   <si>
-    <t>centre of furthest gate</t>
-  </si>
-  <si>
     <t>coordinates</t>
   </si>
   <si>
     <t>latitude longitude</t>
   </si>
   <si>
-    <t>sensor_azimuth_angle</t>
+    <t>sensor_azimuth_angle_instrument_frame</t>
   </si>
   <si>
     <t>time, index_of_angle</t>
   </si>
   <si>
-    <t>for fixed scans dimesion is just time</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
-    <t>Scanning head azimuth angle</t>
-  </si>
-  <si>
-    <t>sensor_view_angle</t>
-  </si>
-  <si>
-    <t>Scanning head elevation angle</t>
+    <t>Scanning head azimuth angle in the instrument fram of reference</t>
+  </si>
+  <si>
+    <t>sensor_view_angle_instrument_frame</t>
+  </si>
+  <si>
+    <t>Scanning head elevation angle in the instrument frame of reference</t>
+  </si>
+  <si>
+    <t>sensor_azimuth_angle_earth_frame</t>
+  </si>
+  <si>
+    <t>Scanning head azimuth angle in the Earth frame of reference</t>
+  </si>
+  <si>
+    <t>sensor_view_angle_earth_frame</t>
+  </si>
+  <si>
+    <t>Scanning head elevation angle in the Earth frame of refeence</t>
   </si>
   <si>
     <t>radial_velocity_of_scatterers_away_from_instrument</t>
@@ -141,24 +283,6 @@
   </si>
   <si>
     <t>time: mean</t>
-  </si>
-  <si>
-    <t>sensor_azimuth_angle_earth_frame</t>
-  </si>
-  <si>
-    <t>Scanning head azimuth angle Earth Frame</t>
-  </si>
-  <si>
-    <t>sensor_view_angle_earth_frame</t>
-  </si>
-  <si>
-    <t>Scanning head elevation angle Earth Frame</t>
-  </si>
-  <si>
-    <t>radial_velocity_of_scatterers_away_from_instrument_earth_frame</t>
-  </si>
-  <si>
-    <t>Radial Velocity of Scatterers Away From Instrument Earth Frame</t>
   </si>
   <si>
     <t>attenuated_aerosol_backscatter_coefficient</t>
@@ -209,10 +333,10 @@
 suspect_data_time_stamp_error</t>
   </si>
   <si>
-    <t>qc_flag_attenuated_aerosol_backscatter_coefficient</t>
-  </si>
-  <si>
-    <t>Data Quality flag: Attenuated Aerosol Backscatter Coefficient</t>
+    <t>qc_flag_backscatter</t>
+  </si>
+  <si>
+    <t>Data Quality flag: Backscatter</t>
   </si>
 </sst>
 </file>
@@ -222,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -230,7 +354,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -243,16 +366,28 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -264,31 +399,52 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -302,7 +458,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -332,20 +488,26 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
@@ -366,7 +528,3246 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.43"/>
+    <col customWidth="1" min="2" max="2" width="29.0"/>
+    <col customWidth="1" min="3" max="3" width="29.29"/>
+    <col customWidth="1" min="4" max="4" width="28.57"/>
+    <col customWidth="1" min="5" max="5" width="29.14"/>
+    <col customWidth="1" min="6" max="6" width="29.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>15000.0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7">
+        <v>64.0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1024.0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="8"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="8"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="8"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="8"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="8"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="8"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="8"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="8"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="8"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="8"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="8"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="8"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="8"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="8"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="8"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="8"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="8"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="8"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="8"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="8"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="8"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="8"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="8"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="8"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="8"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="8"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="8"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="8"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="8"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="8"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="8"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="8"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="8"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="8"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="8"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="8"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="8"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="8"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="8"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="8"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="8"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="8"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="8"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="8"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="8"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="8"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="8"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="8"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="8"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="8"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="8"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="8"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="8"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="8"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="8"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="8"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="8"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="8"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="8"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="8"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="8"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="8"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="8"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="8"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="8"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="8"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="8"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="8"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="8"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="8"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="8"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="8"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="8"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="8"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="8"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="8"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="8"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="8"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="8"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="8"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="8"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="8"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="8"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="8"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="8"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="8"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="8"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="8"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="8"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="8"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="8"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="8"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="8"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="8"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="8"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="8"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="8"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="8"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="8"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="8"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="8"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="8"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="8"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="8"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="8"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="8"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="8"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="8"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="8"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="8"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="8"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="8"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="8"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="8"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="8"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="8"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="8"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="8"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="8"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="8"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="8"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="8"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="8"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="8"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="8"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="8"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="8"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="8"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="8"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="8"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="8"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="8"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="8"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="8"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="8"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="8"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="8"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="8"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="8"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="8"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="8"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="8"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="8"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="8"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="8"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="8"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="8"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="8"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="8"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="8"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="8"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="8"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="8"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="8"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="8"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="8"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="8"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="8"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="8"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="8"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="8"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="8"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="8"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="8"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="8"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="8"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="8"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="8"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="8"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="8"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="8"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="8"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="8"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="8"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="8"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="8"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="8"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="8"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="8"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="8"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="8"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="8"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="8"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="8"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="8"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="8"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="8"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="8"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="8"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="8"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="8"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="8"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="8"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="8"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="8"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="8"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="8"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="8"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="8"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="8"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="8"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="8"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="8"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="8"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="8"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="8"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="8"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="8"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="8"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="8"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="8"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="8"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="8"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="8"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="8"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="8"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="8"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="8"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="8"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="8"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="8"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="8"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="8"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="8"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="8"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="8"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="8"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="8"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="8"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="8"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="8"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="8"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="8"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="8"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="8"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="8"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="8"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="8"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="8"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="8"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="8"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="8"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="8"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="8"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="8"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="8"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="8"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="8"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="8"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="8"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="8"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="8"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="8"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="8"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="8"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="8"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="8"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="8"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="8"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="8"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="8"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="8"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="8"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="8"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="8"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="8"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="8"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="8"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="8"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="8"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="8"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="8"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="8"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="8"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="8"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="8"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="8"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="8"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="8"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="8"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="8"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="8"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="8"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="8"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="8"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="8"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="8"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="8"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="8"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="8"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="8"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="8"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="8"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="8"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="8"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="8"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="8"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="8"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="8"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="8"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="8"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="8"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="8"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="8"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="8"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="8"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="8"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="8"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="8"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="8"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="8"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="8"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="8"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="8"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="8"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="8"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="8"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="8"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="8"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="8"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="8"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="8"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="8"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="8"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="8"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="8"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="8"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="8"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="8"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="8"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="8"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="8"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="8"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="8"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="8"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="8"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="8"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="8"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="8"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="8"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="8"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="8"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="8"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="8"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="8"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="8"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="8"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="8"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="8"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="8"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="8"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="8"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="8"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="8"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="8"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="8"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="8"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="8"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="8"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="8"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="8"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="8"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="8"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="8"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="8"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="8"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="8"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="8"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="8"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="8"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="8"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="8"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="8"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="8"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="8"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="8"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="8"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="8"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="8"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="8"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="8"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="8"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="8"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="8"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="8"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="8"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="8"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="8"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="8"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="8"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="8"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="8"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="8"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="8"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="8"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="8"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="8"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="8"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="8"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="8"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="8"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="8"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="8"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="8"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="8"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="8"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="8"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="8"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="8"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="8"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="8"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="8"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="8"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="8"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="8"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="8"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="8"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="8"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="8"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="8"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="8"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="8"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="8"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="8"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="8"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="8"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="8"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="8"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="8"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="8"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="8"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="8"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="8"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="8"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="8"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="8"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="8"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="8"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="8"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="8"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="8"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="8"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="8"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="8"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="8"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="8"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="8"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="8"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="8"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="8"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="8"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="8"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="8"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="8"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="8"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="8"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="8"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="8"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="8"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="8"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="8"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="8"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="8"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="8"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="8"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="8"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="8"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="8"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="8"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="8"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="8"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="8"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="8"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="8"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="8"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="8"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="8"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="8"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="8"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="8"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="8"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="8"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="8"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="8"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="8"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="8"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="8"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="8"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="8"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="8"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="8"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="8"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="8"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="8"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="8"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="8"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="8"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="8"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="8"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="8"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="8"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="8"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="8"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="8"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="8"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="8"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="8"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="8"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="8"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="8"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="8"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="8"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="8"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="8"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="8"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="8"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="8"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="8"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="8"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="8"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="8"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="8"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="8"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="8"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="8"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="8"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="8"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="8"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="8"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="8"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="8"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="8"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="8"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="8"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="8"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="8"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="8"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="8"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="8"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="8"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="8"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="8"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="8"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="8"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="8"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="8"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="8"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="8"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="8"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="8"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="8"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="8"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="8"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="8"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="8"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="8"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="8"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="8"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="8"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="8"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="8"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="8"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="8"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="8"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="8"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="8"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="8"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="8"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="8"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="8"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="8"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="8"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="8"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="8"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="8"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="8"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="8"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="8"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="8"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="8"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="8"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="8"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="8"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="8"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="8"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="8"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="8"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="8"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="8"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="8"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="8"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="8"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="8"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="8"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="8"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="8"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="8"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="8"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="8"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="8"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="8"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="8"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="8"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="8"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="8"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="8"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="8"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="8"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="8"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="8"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="8"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="8"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="8"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="8"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="8"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="8"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="8"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="8"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="8"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="8"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="8"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="8"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="8"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="8"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="8"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="8"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="8"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="8"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="8"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="8"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="8"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="8"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="8"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="8"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="8"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="8"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="8"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="8"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="8"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="8"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="8"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="8"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="8"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="8"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="8"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="8"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="8"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="8"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="8"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="8"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="8"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="8"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="8"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="8"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="8"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="8"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="8"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="8"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="8"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="8"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="8"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="8"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="8"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="8"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="8"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="8"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="8"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="8"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="8"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="8"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="8"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="8"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="8"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="8"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="8"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="8"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="8"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="8"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="8"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="8"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="8"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="8"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="8"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="8"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="8"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="8"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="8"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="8"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="8"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="8"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="8"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="8"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="8"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="8"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="8"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="8"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="8"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="8"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="8"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="8"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="8"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="8"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="8"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="8"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="8"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="8"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="8"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="8"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="8"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="8"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="8"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="8"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="8"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="8"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="8"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="8"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="8"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="8"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="8"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="8"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="8"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="8"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="8"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="8"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="8"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="8"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="8"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="8"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="8"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="8"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="8"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="8"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="8"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="8"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="8"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="8"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="8"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="8"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="8"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="8"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="8"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="8"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="8"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="8"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="8"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="8"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="8"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="8"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="8"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="8"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="8"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="8"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="8"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="8"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="8"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="8"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="8"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="8"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="8"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="8"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="8"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="8"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="8"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="8"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="8"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="8"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="8"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="8"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="8"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="8"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="8"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="8"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="8"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="8"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="8"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="8"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="8"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="8"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="8"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="8"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="8"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="8"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="8"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="8"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="8"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="8"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="8"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="8"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="8"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="8"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="8"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="8"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="8"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="8"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="8"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="8"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="8"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="8"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="8"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="8"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="8"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="8"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="8"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="8"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="8"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="8"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="8"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="8"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="8"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="8"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="8"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="8"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="8"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="8"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="8"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="8"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="8"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="8"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="8"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="8"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="8"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="8"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="8"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="8"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="8"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="8"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="8"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="8"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="8"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="8"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="8"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="8"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="8"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="8"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="8"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="8"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="8"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="8"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="8"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="8"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="8"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="8"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="8"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="8"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="8"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="8"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="8"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="8"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="8"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="8"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="8"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="8"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="8"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="8"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="8"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="8"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="8"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="8"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="8"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="8"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="8"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="8"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="8"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="8"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="8"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="8"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="8"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="8"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="8"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="8"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="8"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="8"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="8"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="8"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="8"/>
+    </row>
+    <row r="1001">
+      <c r="B1001" s="8"/>
+    </row>
+    <row r="1002">
+      <c r="B1002" s="8"/>
+    </row>
+    <row r="1003">
+      <c r="B1003" s="8"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -383,58 +3784,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="11">
         <v>1.0</v>
       </c>
     </row>
@@ -1440,7 +4841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1460,3626 +4861,3503 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="11">
+        <v>69</v>
+      </c>
+      <c r="C8" s="18">
         <v>-1.0E20</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>30</v>
+      <c r="A11" s="12"/>
+      <c r="B11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="16">
+        <v>69</v>
+      </c>
+      <c r="C19" s="23">
         <v>-1.0E20</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="C23" s="15"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="14"/>
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="16">
+        <v>69</v>
+      </c>
+      <c r="C30" s="23">
         <v>-1.0E20</v>
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="C34" s="15"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="14"/>
+      <c r="A35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="B37" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="16">
+        <v>69</v>
+      </c>
+      <c r="C41" s="23">
         <v>-1.0E20</v>
       </c>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="C46" s="14"/>
+      <c r="A46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="14"/>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="C52" s="23">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="16">
-        <v>-1.0E20</v>
+        <v>70</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" ht="12.0" customHeight="1">
-      <c r="C57" s="15"/>
+      <c r="A57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="21"/>
     </row>
     <row r="58" ht="12.0" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="14"/>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="C63" s="23">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="16">
-        <v>-1.0E20</v>
+        <v>70</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="B65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="B66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="B67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
-      <c r="C68" s="15"/>
+      <c r="C68" s="21"/>
     </row>
     <row r="69" ht="12.0" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="14"/>
+      <c r="A69" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="21"/>
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="B71" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="B75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="16">
+        <v>69</v>
+      </c>
+      <c r="C75" s="23">
         <v>-1.0E20</v>
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="B76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="B78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="B79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
-      <c r="C80" s="14"/>
+      <c r="C80" s="22"/>
     </row>
     <row r="81" ht="12.0" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="F81" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C81" s="22"/>
     </row>
     <row r="82" ht="12.0" customHeight="1">
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="21"/>
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="B85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C85" s="17">
+        <v>1.0</v>
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="B87" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="16">
-        <v>-1.0E20</v>
+        <v>67</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="B88" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="C88" s="23">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="B89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="90" ht="12.0" customHeight="1">
       <c r="B90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>42</v>
+        <v>72</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="91" ht="12.0" customHeight="1">
       <c r="B91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>30</v>
+        <v>88</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="92" ht="12.0" customHeight="1">
-      <c r="C92" s="15"/>
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="93" ht="12.0" customHeight="1">
-      <c r="A93" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="F93" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C93" s="22"/>
     </row>
     <row r="94" ht="12.0" customHeight="1">
-      <c r="B94" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A94" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
     </row>
     <row r="95" ht="12.0" customHeight="1">
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
     </row>
     <row r="96" ht="12.0" customHeight="1">
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="10">
+      <c r="A96" s="19"/>
+      <c r="B96" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="26"/>
+    </row>
+    <row r="97" ht="12.0" customHeight="1">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="32">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="97" ht="12.0" customHeight="1">
-      <c r="B97" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
     </row>
     <row r="98" ht="12.0" customHeight="1">
-      <c r="B98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="27"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
     </row>
     <row r="99" ht="12.0" customHeight="1">
-      <c r="B99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="16">
-        <v>-1.0E20</v>
-      </c>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
     </row>
     <row r="100" ht="12.0" customHeight="1">
-      <c r="B100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
     </row>
     <row r="101" ht="12.0" customHeight="1">
-      <c r="B101" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="A101" s="19"/>
+      <c r="B101" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
     </row>
     <row r="102" ht="12.0" customHeight="1">
-      <c r="B102" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
     </row>
     <row r="103" ht="12.0" customHeight="1">
-      <c r="B103" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="A103" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="26"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
     </row>
     <row r="104" ht="12.0" customHeight="1">
-      <c r="C104" s="15"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
     </row>
     <row r="105" ht="12.0" customHeight="1">
-      <c r="A105" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="106" ht="12.0" customHeight="1">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
     </row>
     <row r="107" ht="12.0" customHeight="1">
-      <c r="A107" s="12"/>
-      <c r="B107" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
       <c r="G107" s="19"/>
     </row>
     <row r="108" ht="12.0" customHeight="1">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="26"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
     </row>
     <row r="109" ht="12.0" customHeight="1">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
     </row>
     <row r="110" ht="12.0" customHeight="1">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
     </row>
     <row r="111" ht="12.0" customHeight="1">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
+      <c r="C111" s="21"/>
     </row>
     <row r="112" ht="12.0" customHeight="1">
-      <c r="A112" s="12"/>
-      <c r="B112" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
+      <c r="C112" s="21"/>
     </row>
     <row r="113" ht="12.0" customHeight="1">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
+      <c r="C113" s="21"/>
     </row>
     <row r="114" ht="12.0" customHeight="1">
-      <c r="A114" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
+      <c r="C114" s="21"/>
     </row>
     <row r="115" ht="12.0" customHeight="1">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
+      <c r="C115" s="21"/>
     </row>
     <row r="116" ht="12.0" customHeight="1">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="19"/>
+      <c r="C116" s="21"/>
     </row>
     <row r="117" ht="12.0" customHeight="1">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
+      <c r="C117" s="21"/>
     </row>
     <row r="118" ht="12.0" customHeight="1">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" s="20"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+      <c r="C118" s="21"/>
     </row>
     <row r="119" ht="12.0" customHeight="1">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
+      <c r="C119" s="21"/>
     </row>
     <row r="120" ht="12.0" customHeight="1">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
+      <c r="C120" s="21"/>
     </row>
     <row r="121" ht="12.0" customHeight="1">
-      <c r="A121" s="12"/>
-      <c r="B121" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
+      <c r="C121" s="21"/>
     </row>
     <row r="122" ht="12.0" customHeight="1">
-      <c r="C122" s="14"/>
+      <c r="C122" s="21"/>
     </row>
     <row r="123" ht="12.0" customHeight="1">
-      <c r="C123" s="14"/>
+      <c r="C123" s="21"/>
     </row>
     <row r="124" ht="12.0" customHeight="1">
-      <c r="C124" s="14"/>
+      <c r="C124" s="21"/>
     </row>
     <row r="125" ht="12.0" customHeight="1">
-      <c r="C125" s="14"/>
+      <c r="C125" s="21"/>
     </row>
     <row r="126" ht="12.0" customHeight="1">
-      <c r="C126" s="14"/>
+      <c r="C126" s="21"/>
     </row>
     <row r="127" ht="12.0" customHeight="1">
-      <c r="C127" s="14"/>
+      <c r="C127" s="21"/>
     </row>
     <row r="128" ht="12.0" customHeight="1">
-      <c r="C128" s="14"/>
+      <c r="C128" s="21"/>
     </row>
     <row r="129" ht="12.0" customHeight="1">
-      <c r="C129" s="14"/>
+      <c r="C129" s="21"/>
     </row>
     <row r="130" ht="12.0" customHeight="1">
-      <c r="C130" s="14"/>
+      <c r="C130" s="21"/>
     </row>
     <row r="131" ht="12.0" customHeight="1">
-      <c r="C131" s="14"/>
+      <c r="C131" s="21"/>
     </row>
     <row r="132" ht="12.0" customHeight="1">
-      <c r="C132" s="14"/>
+      <c r="C132" s="21"/>
     </row>
     <row r="133" ht="12.0" customHeight="1">
-      <c r="C133" s="14"/>
+      <c r="C133" s="21"/>
     </row>
     <row r="134" ht="12.0" customHeight="1">
-      <c r="C134" s="14"/>
+      <c r="C134" s="21"/>
     </row>
     <row r="135" ht="12.0" customHeight="1">
-      <c r="C135" s="14"/>
+      <c r="C135" s="21"/>
     </row>
     <row r="136" ht="12.0" customHeight="1">
-      <c r="C136" s="14"/>
+      <c r="C136" s="21"/>
     </row>
     <row r="137" ht="12.0" customHeight="1">
-      <c r="C137" s="14"/>
+      <c r="C137" s="21"/>
     </row>
     <row r="138" ht="12.0" customHeight="1">
-      <c r="C138" s="14"/>
+      <c r="C138" s="21"/>
     </row>
     <row r="139" ht="12.0" customHeight="1">
-      <c r="C139" s="14"/>
+      <c r="C139" s="21"/>
     </row>
     <row r="140" ht="12.0" customHeight="1">
-      <c r="C140" s="14"/>
+      <c r="C140" s="21"/>
     </row>
     <row r="141" ht="12.0" customHeight="1">
-      <c r="C141" s="14"/>
+      <c r="C141" s="21"/>
     </row>
     <row r="142" ht="12.0" customHeight="1">
-      <c r="C142" s="14"/>
+      <c r="C142" s="21"/>
     </row>
     <row r="143" ht="12.0" customHeight="1">
-      <c r="C143" s="14"/>
+      <c r="C143" s="21"/>
     </row>
     <row r="144" ht="12.0" customHeight="1">
-      <c r="C144" s="14"/>
+      <c r="C144" s="21"/>
     </row>
     <row r="145" ht="12.0" customHeight="1">
-      <c r="C145" s="14"/>
+      <c r="C145" s="21"/>
     </row>
     <row r="146" ht="12.0" customHeight="1">
-      <c r="C146" s="14"/>
+      <c r="C146" s="21"/>
     </row>
     <row r="147" ht="12.0" customHeight="1">
-      <c r="C147" s="14"/>
+      <c r="C147" s="21"/>
     </row>
     <row r="148" ht="12.0" customHeight="1">
-      <c r="C148" s="14"/>
+      <c r="C148" s="21"/>
     </row>
     <row r="149" ht="12.0" customHeight="1">
-      <c r="C149" s="14"/>
+      <c r="C149" s="21"/>
     </row>
     <row r="150" ht="12.0" customHeight="1">
-      <c r="C150" s="14"/>
+      <c r="C150" s="21"/>
     </row>
     <row r="151" ht="12.0" customHeight="1">
-      <c r="C151" s="14"/>
+      <c r="C151" s="21"/>
     </row>
     <row r="152" ht="12.0" customHeight="1">
-      <c r="C152" s="14"/>
+      <c r="C152" s="21"/>
     </row>
     <row r="153" ht="12.0" customHeight="1">
-      <c r="C153" s="14"/>
+      <c r="C153" s="21"/>
     </row>
     <row r="154" ht="12.0" customHeight="1">
-      <c r="C154" s="14"/>
+      <c r="C154" s="21"/>
     </row>
     <row r="155" ht="12.0" customHeight="1">
-      <c r="C155" s="14"/>
+      <c r="C155" s="21"/>
     </row>
     <row r="156" ht="12.0" customHeight="1">
-      <c r="C156" s="14"/>
+      <c r="C156" s="21"/>
     </row>
     <row r="157" ht="12.0" customHeight="1">
-      <c r="C157" s="14"/>
+      <c r="C157" s="21"/>
     </row>
     <row r="158" ht="12.0" customHeight="1">
-      <c r="C158" s="14"/>
+      <c r="C158" s="21"/>
     </row>
     <row r="159" ht="12.0" customHeight="1">
-      <c r="C159" s="14"/>
+      <c r="C159" s="21"/>
     </row>
     <row r="160" ht="12.0" customHeight="1">
-      <c r="C160" s="14"/>
+      <c r="C160" s="21"/>
     </row>
     <row r="161" ht="12.0" customHeight="1">
-      <c r="C161" s="14"/>
+      <c r="C161" s="21"/>
     </row>
     <row r="162" ht="12.0" customHeight="1">
-      <c r="C162" s="14"/>
+      <c r="C162" s="21"/>
     </row>
     <row r="163" ht="12.0" customHeight="1">
-      <c r="C163" s="14"/>
+      <c r="C163" s="21"/>
     </row>
     <row r="164" ht="12.0" customHeight="1">
-      <c r="C164" s="14"/>
+      <c r="C164" s="21"/>
     </row>
     <row r="165" ht="12.0" customHeight="1">
-      <c r="C165" s="14"/>
+      <c r="C165" s="21"/>
     </row>
     <row r="166" ht="12.0" customHeight="1">
-      <c r="C166" s="14"/>
+      <c r="C166" s="21"/>
     </row>
     <row r="167" ht="12.0" customHeight="1">
-      <c r="C167" s="14"/>
+      <c r="C167" s="21"/>
     </row>
     <row r="168" ht="12.0" customHeight="1">
-      <c r="C168" s="14"/>
+      <c r="C168" s="21"/>
     </row>
     <row r="169" ht="12.0" customHeight="1">
-      <c r="C169" s="14"/>
+      <c r="C169" s="21"/>
     </row>
     <row r="170" ht="12.0" customHeight="1">
-      <c r="C170" s="14"/>
+      <c r="C170" s="21"/>
     </row>
     <row r="171" ht="12.0" customHeight="1">
-      <c r="C171" s="14"/>
+      <c r="C171" s="21"/>
     </row>
     <row r="172" ht="12.0" customHeight="1">
-      <c r="C172" s="14"/>
+      <c r="C172" s="21"/>
     </row>
     <row r="173" ht="12.0" customHeight="1">
-      <c r="C173" s="14"/>
+      <c r="C173" s="21"/>
     </row>
     <row r="174" ht="12.0" customHeight="1">
-      <c r="C174" s="14"/>
+      <c r="C174" s="21"/>
     </row>
     <row r="175" ht="12.0" customHeight="1">
-      <c r="C175" s="14"/>
+      <c r="C175" s="21"/>
     </row>
     <row r="176" ht="12.0" customHeight="1">
-      <c r="C176" s="14"/>
+      <c r="C176" s="21"/>
     </row>
     <row r="177" ht="12.0" customHeight="1">
-      <c r="C177" s="14"/>
+      <c r="C177" s="21"/>
     </row>
     <row r="178" ht="12.0" customHeight="1">
-      <c r="C178" s="14"/>
+      <c r="C178" s="21"/>
     </row>
     <row r="179" ht="12.0" customHeight="1">
-      <c r="C179" s="14"/>
+      <c r="C179" s="21"/>
     </row>
     <row r="180" ht="12.0" customHeight="1">
-      <c r="C180" s="14"/>
+      <c r="C180" s="21"/>
     </row>
     <row r="181" ht="12.0" customHeight="1">
-      <c r="C181" s="14"/>
+      <c r="C181" s="21"/>
     </row>
     <row r="182" ht="12.0" customHeight="1">
-      <c r="C182" s="14"/>
+      <c r="C182" s="21"/>
     </row>
     <row r="183" ht="12.0" customHeight="1">
-      <c r="C183" s="14"/>
+      <c r="C183" s="21"/>
     </row>
     <row r="184" ht="12.0" customHeight="1">
-      <c r="C184" s="14"/>
+      <c r="C184" s="21"/>
     </row>
     <row r="185" ht="12.0" customHeight="1">
-      <c r="C185" s="14"/>
+      <c r="C185" s="21"/>
     </row>
     <row r="186" ht="12.0" customHeight="1">
-      <c r="C186" s="14"/>
+      <c r="C186" s="21"/>
     </row>
     <row r="187" ht="12.0" customHeight="1">
-      <c r="C187" s="14"/>
+      <c r="C187" s="21"/>
     </row>
     <row r="188" ht="12.0" customHeight="1">
-      <c r="C188" s="14"/>
+      <c r="C188" s="21"/>
     </row>
     <row r="189" ht="12.0" customHeight="1">
-      <c r="C189" s="14"/>
+      <c r="C189" s="21"/>
     </row>
     <row r="190" ht="12.0" customHeight="1">
-      <c r="C190" s="14"/>
+      <c r="C190" s="21"/>
     </row>
     <row r="191" ht="12.0" customHeight="1">
-      <c r="C191" s="14"/>
+      <c r="C191" s="21"/>
     </row>
     <row r="192" ht="12.0" customHeight="1">
-      <c r="C192" s="14"/>
+      <c r="C192" s="21"/>
     </row>
     <row r="193" ht="12.0" customHeight="1">
-      <c r="C193" s="14"/>
+      <c r="C193" s="21"/>
     </row>
     <row r="194" ht="12.0" customHeight="1">
-      <c r="C194" s="14"/>
+      <c r="C194" s="21"/>
     </row>
     <row r="195" ht="12.0" customHeight="1">
-      <c r="C195" s="14"/>
+      <c r="C195" s="21"/>
     </row>
     <row r="196" ht="12.0" customHeight="1">
-      <c r="C196" s="14"/>
+      <c r="C196" s="21"/>
     </row>
     <row r="197" ht="12.0" customHeight="1">
-      <c r="C197" s="14"/>
+      <c r="C197" s="21"/>
     </row>
     <row r="198" ht="12.0" customHeight="1">
-      <c r="C198" s="14"/>
+      <c r="C198" s="21"/>
     </row>
     <row r="199" ht="12.0" customHeight="1">
-      <c r="C199" s="14"/>
+      <c r="C199" s="21"/>
     </row>
     <row r="200" ht="12.0" customHeight="1">
-      <c r="C200" s="14"/>
+      <c r="C200" s="21"/>
     </row>
     <row r="201" ht="12.0" customHeight="1">
-      <c r="C201" s="14"/>
+      <c r="C201" s="21"/>
     </row>
     <row r="202" ht="12.0" customHeight="1">
-      <c r="C202" s="14"/>
+      <c r="C202" s="21"/>
     </row>
     <row r="203" ht="12.0" customHeight="1">
-      <c r="C203" s="14"/>
+      <c r="C203" s="21"/>
     </row>
     <row r="204" ht="12.0" customHeight="1">
-      <c r="C204" s="14"/>
+      <c r="C204" s="21"/>
     </row>
     <row r="205" ht="12.0" customHeight="1">
-      <c r="C205" s="14"/>
+      <c r="C205" s="21"/>
     </row>
     <row r="206" ht="12.0" customHeight="1">
-      <c r="C206" s="14"/>
+      <c r="C206" s="21"/>
     </row>
     <row r="207" ht="12.0" customHeight="1">
-      <c r="C207" s="14"/>
+      <c r="C207" s="21"/>
     </row>
     <row r="208" ht="12.0" customHeight="1">
-      <c r="C208" s="14"/>
+      <c r="C208" s="21"/>
     </row>
     <row r="209" ht="12.0" customHeight="1">
-      <c r="C209" s="14"/>
+      <c r="C209" s="21"/>
     </row>
     <row r="210" ht="12.0" customHeight="1">
-      <c r="C210" s="14"/>
+      <c r="C210" s="21"/>
     </row>
     <row r="211" ht="12.0" customHeight="1">
-      <c r="C211" s="14"/>
+      <c r="C211" s="21"/>
     </row>
     <row r="212" ht="12.0" customHeight="1">
-      <c r="C212" s="14"/>
+      <c r="C212" s="21"/>
     </row>
     <row r="213" ht="12.0" customHeight="1">
-      <c r="C213" s="14"/>
+      <c r="C213" s="21"/>
     </row>
     <row r="214" ht="12.0" customHeight="1">
-      <c r="C214" s="14"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" ht="12.0" customHeight="1">
-      <c r="C215" s="14"/>
+      <c r="C215" s="21"/>
     </row>
     <row r="216" ht="12.0" customHeight="1">
-      <c r="C216" s="14"/>
+      <c r="C216" s="21"/>
     </row>
     <row r="217" ht="12.0" customHeight="1">
-      <c r="C217" s="14"/>
+      <c r="C217" s="21"/>
     </row>
     <row r="218" ht="12.0" customHeight="1">
-      <c r="C218" s="14"/>
+      <c r="C218" s="21"/>
     </row>
     <row r="219" ht="12.0" customHeight="1">
-      <c r="C219" s="14"/>
+      <c r="C219" s="21"/>
     </row>
     <row r="220" ht="12.0" customHeight="1">
-      <c r="C220" s="14"/>
+      <c r="C220" s="21"/>
     </row>
     <row r="221" ht="12.0" customHeight="1">
-      <c r="C221" s="14"/>
+      <c r="C221" s="21"/>
     </row>
     <row r="222" ht="12.0" customHeight="1">
-      <c r="C222" s="14"/>
+      <c r="C222" s="21"/>
     </row>
     <row r="223" ht="12.0" customHeight="1">
-      <c r="C223" s="14"/>
+      <c r="C223" s="21"/>
     </row>
     <row r="224" ht="12.0" customHeight="1">
-      <c r="C224" s="14"/>
+      <c r="C224" s="21"/>
     </row>
     <row r="225" ht="12.0" customHeight="1">
-      <c r="C225" s="14"/>
+      <c r="C225" s="21"/>
     </row>
     <row r="226" ht="12.0" customHeight="1">
-      <c r="C226" s="14"/>
+      <c r="C226" s="21"/>
     </row>
     <row r="227" ht="12.0" customHeight="1">
-      <c r="C227" s="14"/>
+      <c r="C227" s="21"/>
     </row>
     <row r="228" ht="12.0" customHeight="1">
-      <c r="C228" s="14"/>
+      <c r="C228" s="21"/>
     </row>
     <row r="229" ht="12.0" customHeight="1">
-      <c r="C229" s="14"/>
+      <c r="C229" s="21"/>
     </row>
     <row r="230" ht="12.0" customHeight="1">
-      <c r="C230" s="14"/>
+      <c r="C230" s="21"/>
     </row>
     <row r="231" ht="12.0" customHeight="1">
-      <c r="C231" s="14"/>
+      <c r="C231" s="21"/>
     </row>
     <row r="232" ht="12.0" customHeight="1">
-      <c r="C232" s="14"/>
+      <c r="C232" s="21"/>
     </row>
     <row r="233" ht="12.0" customHeight="1">
-      <c r="C233" s="14"/>
+      <c r="C233" s="21"/>
     </row>
     <row r="234" ht="12.0" customHeight="1">
-      <c r="C234" s="14"/>
+      <c r="C234" s="21"/>
     </row>
     <row r="235" ht="12.0" customHeight="1">
-      <c r="C235" s="14"/>
+      <c r="C235" s="21"/>
     </row>
     <row r="236" ht="12.0" customHeight="1">
-      <c r="C236" s="14"/>
+      <c r="C236" s="21"/>
     </row>
     <row r="237" ht="12.0" customHeight="1">
-      <c r="C237" s="14"/>
+      <c r="C237" s="21"/>
     </row>
     <row r="238" ht="12.0" customHeight="1">
-      <c r="C238" s="14"/>
+      <c r="C238" s="21"/>
     </row>
     <row r="239" ht="12.0" customHeight="1">
-      <c r="C239" s="14"/>
+      <c r="C239" s="21"/>
     </row>
     <row r="240" ht="12.0" customHeight="1">
-      <c r="C240" s="14"/>
+      <c r="C240" s="21"/>
     </row>
     <row r="241" ht="12.0" customHeight="1">
-      <c r="C241" s="14"/>
+      <c r="C241" s="21"/>
     </row>
     <row r="242" ht="12.0" customHeight="1">
-      <c r="C242" s="14"/>
+      <c r="C242" s="21"/>
     </row>
     <row r="243" ht="12.0" customHeight="1">
-      <c r="C243" s="14"/>
+      <c r="C243" s="21"/>
     </row>
     <row r="244" ht="12.0" customHeight="1">
-      <c r="C244" s="14"/>
+      <c r="C244" s="21"/>
     </row>
     <row r="245" ht="12.0" customHeight="1">
-      <c r="C245" s="14"/>
+      <c r="C245" s="21"/>
     </row>
     <row r="246" ht="12.0" customHeight="1">
-      <c r="C246" s="14"/>
+      <c r="C246" s="21"/>
     </row>
     <row r="247" ht="12.0" customHeight="1">
-      <c r="C247" s="14"/>
+      <c r="C247" s="21"/>
     </row>
     <row r="248" ht="12.0" customHeight="1">
-      <c r="C248" s="14"/>
+      <c r="C248" s="21"/>
     </row>
     <row r="249" ht="12.0" customHeight="1">
-      <c r="C249" s="14"/>
+      <c r="C249" s="21"/>
     </row>
     <row r="250" ht="12.0" customHeight="1">
-      <c r="C250" s="14"/>
+      <c r="C250" s="21"/>
     </row>
     <row r="251" ht="12.0" customHeight="1">
-      <c r="C251" s="14"/>
+      <c r="C251" s="21"/>
     </row>
     <row r="252" ht="12.0" customHeight="1">
-      <c r="C252" s="14"/>
+      <c r="C252" s="21"/>
     </row>
     <row r="253" ht="12.0" customHeight="1">
-      <c r="C253" s="14"/>
+      <c r="C253" s="21"/>
     </row>
     <row r="254" ht="12.0" customHeight="1">
-      <c r="C254" s="14"/>
+      <c r="C254" s="21"/>
     </row>
     <row r="255" ht="12.0" customHeight="1">
-      <c r="C255" s="14"/>
+      <c r="C255" s="21"/>
     </row>
     <row r="256" ht="12.0" customHeight="1">
-      <c r="C256" s="14"/>
+      <c r="C256" s="21"/>
     </row>
     <row r="257" ht="12.0" customHeight="1">
-      <c r="C257" s="14"/>
+      <c r="C257" s="21"/>
     </row>
     <row r="258" ht="12.0" customHeight="1">
-      <c r="C258" s="14"/>
+      <c r="C258" s="21"/>
     </row>
     <row r="259" ht="12.0" customHeight="1">
-      <c r="C259" s="14"/>
+      <c r="C259" s="21"/>
     </row>
     <row r="260" ht="12.0" customHeight="1">
-      <c r="C260" s="14"/>
+      <c r="C260" s="21"/>
     </row>
     <row r="261" ht="12.0" customHeight="1">
-      <c r="C261" s="14"/>
+      <c r="C261" s="21"/>
     </row>
     <row r="262" ht="12.0" customHeight="1">
-      <c r="C262" s="14"/>
+      <c r="C262" s="21"/>
     </row>
     <row r="263" ht="12.0" customHeight="1">
-      <c r="C263" s="14"/>
+      <c r="C263" s="21"/>
     </row>
     <row r="264" ht="12.0" customHeight="1">
-      <c r="C264" s="14"/>
+      <c r="C264" s="21"/>
     </row>
     <row r="265" ht="12.0" customHeight="1">
-      <c r="C265" s="14"/>
+      <c r="C265" s="21"/>
     </row>
     <row r="266" ht="12.0" customHeight="1">
-      <c r="C266" s="14"/>
+      <c r="C266" s="21"/>
     </row>
     <row r="267" ht="12.0" customHeight="1">
-      <c r="C267" s="14"/>
+      <c r="C267" s="21"/>
     </row>
     <row r="268" ht="12.0" customHeight="1">
-      <c r="C268" s="14"/>
+      <c r="C268" s="21"/>
     </row>
     <row r="269" ht="12.0" customHeight="1">
-      <c r="C269" s="14"/>
+      <c r="C269" s="21"/>
     </row>
     <row r="270" ht="12.0" customHeight="1">
-      <c r="C270" s="14"/>
+      <c r="C270" s="21"/>
     </row>
     <row r="271" ht="12.0" customHeight="1">
-      <c r="C271" s="14"/>
+      <c r="C271" s="21"/>
     </row>
     <row r="272" ht="12.0" customHeight="1">
-      <c r="C272" s="14"/>
+      <c r="C272" s="21"/>
     </row>
     <row r="273" ht="12.0" customHeight="1">
-      <c r="C273" s="14"/>
+      <c r="C273" s="21"/>
     </row>
     <row r="274" ht="12.0" customHeight="1">
-      <c r="C274" s="14"/>
+      <c r="C274" s="21"/>
     </row>
     <row r="275" ht="12.0" customHeight="1">
-      <c r="C275" s="14"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" ht="12.0" customHeight="1">
-      <c r="C276" s="14"/>
+      <c r="C276" s="21"/>
     </row>
     <row r="277" ht="12.0" customHeight="1">
-      <c r="C277" s="14"/>
+      <c r="C277" s="21"/>
     </row>
     <row r="278" ht="12.0" customHeight="1">
-      <c r="C278" s="14"/>
+      <c r="C278" s="21"/>
     </row>
     <row r="279" ht="12.0" customHeight="1">
-      <c r="C279" s="14"/>
+      <c r="C279" s="21"/>
     </row>
     <row r="280" ht="12.0" customHeight="1">
-      <c r="C280" s="14"/>
+      <c r="C280" s="21"/>
     </row>
     <row r="281" ht="12.0" customHeight="1">
-      <c r="C281" s="14"/>
+      <c r="C281" s="21"/>
     </row>
     <row r="282" ht="12.0" customHeight="1">
-      <c r="C282" s="14"/>
+      <c r="C282" s="21"/>
     </row>
     <row r="283" ht="12.0" customHeight="1">
-      <c r="C283" s="14"/>
+      <c r="C283" s="21"/>
     </row>
     <row r="284" ht="12.0" customHeight="1">
-      <c r="C284" s="14"/>
+      <c r="C284" s="21"/>
     </row>
     <row r="285" ht="12.0" customHeight="1">
-      <c r="C285" s="14"/>
+      <c r="C285" s="21"/>
     </row>
     <row r="286" ht="12.0" customHeight="1">
-      <c r="C286" s="14"/>
+      <c r="C286" s="21"/>
     </row>
     <row r="287" ht="12.0" customHeight="1">
-      <c r="C287" s="14"/>
+      <c r="C287" s="21"/>
     </row>
     <row r="288" ht="12.0" customHeight="1">
-      <c r="C288" s="14"/>
+      <c r="C288" s="21"/>
     </row>
     <row r="289" ht="12.0" customHeight="1">
-      <c r="C289" s="14"/>
+      <c r="C289" s="21"/>
     </row>
     <row r="290" ht="12.0" customHeight="1">
-      <c r="C290" s="14"/>
+      <c r="C290" s="21"/>
     </row>
     <row r="291" ht="12.0" customHeight="1">
-      <c r="C291" s="14"/>
+      <c r="C291" s="21"/>
     </row>
     <row r="292" ht="12.0" customHeight="1">
-      <c r="C292" s="14"/>
+      <c r="C292" s="21"/>
     </row>
     <row r="293" ht="12.0" customHeight="1">
-      <c r="C293" s="14"/>
+      <c r="C293" s="21"/>
     </row>
     <row r="294" ht="12.0" customHeight="1">
-      <c r="C294" s="14"/>
+      <c r="C294" s="21"/>
     </row>
     <row r="295" ht="12.0" customHeight="1">
-      <c r="C295" s="14"/>
+      <c r="C295" s="21"/>
     </row>
     <row r="296" ht="12.0" customHeight="1">
-      <c r="C296" s="14"/>
+      <c r="C296" s="21"/>
     </row>
     <row r="297" ht="12.0" customHeight="1">
-      <c r="C297" s="14"/>
+      <c r="C297" s="21"/>
     </row>
     <row r="298" ht="12.0" customHeight="1">
-      <c r="C298" s="14"/>
+      <c r="C298" s="21"/>
     </row>
     <row r="299" ht="12.0" customHeight="1">
-      <c r="C299" s="14"/>
+      <c r="C299" s="21"/>
     </row>
     <row r="300" ht="12.0" customHeight="1">
-      <c r="C300" s="14"/>
+      <c r="C300" s="21"/>
     </row>
     <row r="301" ht="12.0" customHeight="1">
-      <c r="C301" s="14"/>
+      <c r="C301" s="21"/>
     </row>
     <row r="302" ht="12.0" customHeight="1">
-      <c r="C302" s="14"/>
+      <c r="C302" s="21"/>
     </row>
     <row r="303" ht="12.0" customHeight="1">
-      <c r="C303" s="14"/>
+      <c r="C303" s="21"/>
     </row>
     <row r="304" ht="12.0" customHeight="1">
-      <c r="C304" s="14"/>
+      <c r="C304" s="21"/>
     </row>
     <row r="305" ht="12.0" customHeight="1">
-      <c r="C305" s="14"/>
+      <c r="C305" s="21"/>
     </row>
     <row r="306" ht="12.0" customHeight="1">
-      <c r="C306" s="14"/>
+      <c r="C306" s="21"/>
     </row>
     <row r="307" ht="12.0" customHeight="1">
-      <c r="C307" s="14"/>
+      <c r="C307" s="21"/>
     </row>
     <row r="308" ht="12.0" customHeight="1">
-      <c r="C308" s="14"/>
+      <c r="C308" s="21"/>
     </row>
     <row r="309" ht="12.0" customHeight="1">
-      <c r="C309" s="14"/>
+      <c r="C309" s="21"/>
     </row>
     <row r="310" ht="12.0" customHeight="1">
-      <c r="C310" s="14"/>
+      <c r="C310" s="21"/>
     </row>
     <row r="311" ht="12.0" customHeight="1">
-      <c r="C311" s="14"/>
+      <c r="C311" s="21"/>
     </row>
     <row r="312" ht="12.0" customHeight="1">
-      <c r="C312" s="14"/>
+      <c r="C312" s="21"/>
     </row>
     <row r="313" ht="12.0" customHeight="1">
-      <c r="C313" s="14"/>
+      <c r="C313" s="21"/>
     </row>
     <row r="314" ht="12.0" customHeight="1">
-      <c r="C314" s="14"/>
+      <c r="C314" s="21"/>
     </row>
     <row r="315" ht="12.0" customHeight="1">
-      <c r="C315" s="14"/>
+      <c r="C315" s="21"/>
     </row>
     <row r="316" ht="12.0" customHeight="1">
-      <c r="C316" s="14"/>
+      <c r="C316" s="21"/>
     </row>
     <row r="317" ht="12.0" customHeight="1">
-      <c r="C317" s="14"/>
+      <c r="C317" s="21"/>
     </row>
     <row r="318" ht="12.0" customHeight="1">
-      <c r="C318" s="14"/>
+      <c r="C318" s="21"/>
     </row>
     <row r="319" ht="12.0" customHeight="1">
-      <c r="C319" s="14"/>
+      <c r="C319" s="21"/>
     </row>
     <row r="320" ht="12.0" customHeight="1">
-      <c r="C320" s="14"/>
+      <c r="C320" s="21"/>
     </row>
     <row r="321" ht="12.0" customHeight="1">
-      <c r="C321" s="14"/>
+      <c r="C321" s="21"/>
     </row>
     <row r="322" ht="12.0" customHeight="1">
-      <c r="C322" s="14"/>
+      <c r="C322" s="21"/>
     </row>
     <row r="323" ht="12.0" customHeight="1">
-      <c r="C323" s="14"/>
+      <c r="C323" s="21"/>
     </row>
     <row r="324" ht="12.0" customHeight="1">
-      <c r="C324" s="14"/>
+      <c r="C324" s="21"/>
     </row>
     <row r="325" ht="12.0" customHeight="1">
-      <c r="C325" s="14"/>
+      <c r="C325" s="21"/>
     </row>
     <row r="326" ht="12.0" customHeight="1">
-      <c r="C326" s="14"/>
+      <c r="C326" s="21"/>
     </row>
     <row r="327" ht="12.0" customHeight="1">
-      <c r="C327" s="14"/>
+      <c r="C327" s="21"/>
     </row>
     <row r="328" ht="12.0" customHeight="1">
-      <c r="C328" s="14"/>
+      <c r="C328" s="21"/>
     </row>
     <row r="329" ht="12.0" customHeight="1">
-      <c r="C329" s="14"/>
+      <c r="C329" s="21"/>
     </row>
     <row r="330" ht="12.0" customHeight="1">
-      <c r="C330" s="14"/>
+      <c r="C330" s="21"/>
     </row>
     <row r="331" ht="12.0" customHeight="1">
-      <c r="C331" s="14"/>
+      <c r="C331" s="21"/>
     </row>
     <row r="332" ht="12.0" customHeight="1">
-      <c r="C332" s="14"/>
+      <c r="C332" s="21"/>
     </row>
     <row r="333" ht="12.0" customHeight="1">
-      <c r="C333" s="14"/>
+      <c r="C333" s="21"/>
     </row>
     <row r="334" ht="12.0" customHeight="1">
-      <c r="C334" s="14"/>
+      <c r="C334" s="21"/>
     </row>
     <row r="335" ht="12.0" customHeight="1">
-      <c r="C335" s="14"/>
+      <c r="C335" s="21"/>
     </row>
     <row r="336" ht="12.0" customHeight="1">
-      <c r="C336" s="14"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" ht="12.0" customHeight="1">
-      <c r="C337" s="14"/>
+      <c r="C337" s="21"/>
     </row>
     <row r="338" ht="12.0" customHeight="1">
-      <c r="C338" s="14"/>
+      <c r="C338" s="21"/>
     </row>
     <row r="339" ht="12.0" customHeight="1">
-      <c r="C339" s="14"/>
+      <c r="C339" s="21"/>
     </row>
     <row r="340" ht="12.0" customHeight="1">
-      <c r="C340" s="14"/>
+      <c r="C340" s="21"/>
     </row>
     <row r="341" ht="12.0" customHeight="1">
-      <c r="C341" s="14"/>
+      <c r="C341" s="21"/>
     </row>
     <row r="342" ht="12.0" customHeight="1">
-      <c r="C342" s="14"/>
+      <c r="C342" s="21"/>
     </row>
     <row r="343" ht="12.0" customHeight="1">
-      <c r="C343" s="14"/>
+      <c r="C343" s="21"/>
     </row>
     <row r="344" ht="12.0" customHeight="1">
-      <c r="C344" s="14"/>
+      <c r="C344" s="21"/>
     </row>
     <row r="345" ht="12.0" customHeight="1">
-      <c r="C345" s="14"/>
+      <c r="C345" s="21"/>
     </row>
     <row r="346" ht="12.0" customHeight="1">
-      <c r="C346" s="14"/>
+      <c r="C346" s="21"/>
     </row>
     <row r="347" ht="12.0" customHeight="1">
-      <c r="C347" s="14"/>
+      <c r="C347" s="21"/>
     </row>
     <row r="348" ht="12.0" customHeight="1">
-      <c r="C348" s="14"/>
+      <c r="C348" s="21"/>
     </row>
     <row r="349" ht="12.0" customHeight="1">
-      <c r="C349" s="14"/>
+      <c r="C349" s="21"/>
     </row>
     <row r="350" ht="12.0" customHeight="1">
-      <c r="C350" s="14"/>
+      <c r="C350" s="21"/>
     </row>
     <row r="351" ht="12.0" customHeight="1">
-      <c r="C351" s="14"/>
+      <c r="C351" s="21"/>
     </row>
     <row r="352" ht="12.0" customHeight="1">
-      <c r="C352" s="14"/>
+      <c r="C352" s="21"/>
     </row>
     <row r="353" ht="12.0" customHeight="1">
-      <c r="C353" s="14"/>
+      <c r="C353" s="21"/>
     </row>
     <row r="354" ht="12.0" customHeight="1">
-      <c r="C354" s="14"/>
+      <c r="C354" s="21"/>
     </row>
     <row r="355" ht="12.0" customHeight="1">
-      <c r="C355" s="14"/>
+      <c r="C355" s="21"/>
     </row>
     <row r="356" ht="12.0" customHeight="1">
-      <c r="C356" s="14"/>
+      <c r="C356" s="21"/>
     </row>
     <row r="357" ht="12.0" customHeight="1">
-      <c r="C357" s="14"/>
+      <c r="C357" s="21"/>
     </row>
     <row r="358" ht="12.0" customHeight="1">
-      <c r="C358" s="14"/>
+      <c r="C358" s="21"/>
     </row>
     <row r="359" ht="12.0" customHeight="1">
-      <c r="C359" s="14"/>
+      <c r="C359" s="21"/>
     </row>
     <row r="360" ht="12.0" customHeight="1">
-      <c r="C360" s="14"/>
+      <c r="C360" s="21"/>
     </row>
     <row r="361" ht="12.0" customHeight="1">
-      <c r="C361" s="14"/>
+      <c r="C361" s="21"/>
     </row>
     <row r="362" ht="12.0" customHeight="1">
-      <c r="C362" s="14"/>
+      <c r="C362" s="21"/>
     </row>
     <row r="363" ht="12.0" customHeight="1">
-      <c r="C363" s="14"/>
+      <c r="C363" s="21"/>
     </row>
     <row r="364" ht="12.0" customHeight="1">
-      <c r="C364" s="14"/>
+      <c r="C364" s="21"/>
     </row>
     <row r="365" ht="12.0" customHeight="1">
-      <c r="C365" s="14"/>
+      <c r="C365" s="21"/>
     </row>
     <row r="366" ht="12.0" customHeight="1">
-      <c r="C366" s="14"/>
+      <c r="C366" s="21"/>
     </row>
     <row r="367" ht="12.0" customHeight="1">
-      <c r="C367" s="14"/>
+      <c r="C367" s="21"/>
     </row>
     <row r="368" ht="12.0" customHeight="1">
-      <c r="C368" s="14"/>
+      <c r="C368" s="21"/>
     </row>
     <row r="369" ht="12.0" customHeight="1">
-      <c r="C369" s="14"/>
+      <c r="C369" s="21"/>
     </row>
     <row r="370" ht="12.0" customHeight="1">
-      <c r="C370" s="14"/>
+      <c r="C370" s="21"/>
     </row>
     <row r="371" ht="12.0" customHeight="1">
-      <c r="C371" s="14"/>
+      <c r="C371" s="21"/>
     </row>
     <row r="372" ht="12.0" customHeight="1">
-      <c r="C372" s="14"/>
+      <c r="C372" s="21"/>
     </row>
     <row r="373" ht="12.0" customHeight="1">
-      <c r="C373" s="14"/>
+      <c r="C373" s="21"/>
     </row>
     <row r="374" ht="12.0" customHeight="1">
-      <c r="C374" s="14"/>
+      <c r="C374" s="21"/>
     </row>
     <row r="375" ht="12.0" customHeight="1">
-      <c r="C375" s="14"/>
+      <c r="C375" s="21"/>
     </row>
     <row r="376" ht="12.0" customHeight="1">
-      <c r="C376" s="14"/>
+      <c r="C376" s="21"/>
     </row>
     <row r="377" ht="12.0" customHeight="1">
-      <c r="C377" s="14"/>
+      <c r="C377" s="21"/>
     </row>
     <row r="378" ht="12.0" customHeight="1">
-      <c r="C378" s="14"/>
+      <c r="C378" s="21"/>
     </row>
     <row r="379" ht="12.0" customHeight="1">
-      <c r="C379" s="14"/>
+      <c r="C379" s="21"/>
     </row>
     <row r="380" ht="12.0" customHeight="1">
-      <c r="C380" s="14"/>
+      <c r="C380" s="21"/>
     </row>
     <row r="381" ht="12.0" customHeight="1">
-      <c r="C381" s="14"/>
+      <c r="C381" s="21"/>
     </row>
     <row r="382" ht="12.0" customHeight="1">
-      <c r="C382" s="14"/>
+      <c r="C382" s="21"/>
     </row>
     <row r="383" ht="12.0" customHeight="1">
-      <c r="C383" s="14"/>
+      <c r="C383" s="21"/>
     </row>
     <row r="384" ht="12.0" customHeight="1">
-      <c r="C384" s="14"/>
+      <c r="C384" s="21"/>
     </row>
     <row r="385" ht="12.0" customHeight="1">
-      <c r="C385" s="14"/>
+      <c r="C385" s="21"/>
     </row>
     <row r="386" ht="12.0" customHeight="1">
-      <c r="C386" s="14"/>
+      <c r="C386" s="21"/>
     </row>
     <row r="387" ht="12.0" customHeight="1">
-      <c r="C387" s="14"/>
+      <c r="C387" s="21"/>
     </row>
     <row r="388" ht="12.0" customHeight="1">
-      <c r="C388" s="14"/>
+      <c r="C388" s="21"/>
     </row>
     <row r="389" ht="12.0" customHeight="1">
-      <c r="C389" s="14"/>
+      <c r="C389" s="21"/>
     </row>
     <row r="390" ht="12.0" customHeight="1">
-      <c r="C390" s="14"/>
+      <c r="C390" s="21"/>
     </row>
     <row r="391" ht="12.0" customHeight="1">
-      <c r="C391" s="14"/>
+      <c r="C391" s="21"/>
     </row>
     <row r="392" ht="12.0" customHeight="1">
-      <c r="C392" s="14"/>
+      <c r="C392" s="21"/>
     </row>
     <row r="393" ht="12.0" customHeight="1">
-      <c r="C393" s="14"/>
+      <c r="C393" s="21"/>
     </row>
     <row r="394" ht="12.0" customHeight="1">
-      <c r="C394" s="14"/>
+      <c r="C394" s="21"/>
     </row>
     <row r="395" ht="12.0" customHeight="1">
-      <c r="C395" s="14"/>
+      <c r="C395" s="21"/>
     </row>
     <row r="396" ht="12.0" customHeight="1">
-      <c r="C396" s="14"/>
+      <c r="C396" s="21"/>
     </row>
     <row r="397" ht="12.0" customHeight="1">
-      <c r="C397" s="14"/>
+      <c r="C397" s="21"/>
     </row>
     <row r="398" ht="12.0" customHeight="1">
-      <c r="C398" s="14"/>
+      <c r="C398" s="21"/>
     </row>
     <row r="399" ht="12.0" customHeight="1">
-      <c r="C399" s="14"/>
+      <c r="C399" s="21"/>
     </row>
     <row r="400" ht="12.0" customHeight="1">
-      <c r="C400" s="14"/>
+      <c r="C400" s="21"/>
     </row>
     <row r="401" ht="12.0" customHeight="1">
-      <c r="C401" s="14"/>
+      <c r="C401" s="21"/>
     </row>
     <row r="402" ht="12.0" customHeight="1">
-      <c r="C402" s="14"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" ht="12.0" customHeight="1">
-      <c r="C403" s="14"/>
+      <c r="C403" s="21"/>
     </row>
     <row r="404" ht="12.0" customHeight="1">
-      <c r="C404" s="14"/>
+      <c r="C404" s="21"/>
     </row>
     <row r="405" ht="12.0" customHeight="1">
-      <c r="C405" s="14"/>
+      <c r="C405" s="21"/>
     </row>
     <row r="406" ht="12.0" customHeight="1">
-      <c r="C406" s="14"/>
+      <c r="C406" s="21"/>
     </row>
     <row r="407" ht="12.0" customHeight="1">
-      <c r="C407" s="14"/>
+      <c r="C407" s="21"/>
     </row>
     <row r="408" ht="12.0" customHeight="1">
-      <c r="C408" s="14"/>
+      <c r="C408" s="21"/>
     </row>
     <row r="409" ht="12.0" customHeight="1">
-      <c r="C409" s="14"/>
+      <c r="C409" s="21"/>
     </row>
     <row r="410" ht="12.0" customHeight="1">
-      <c r="C410" s="14"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" ht="12.0" customHeight="1">
-      <c r="C411" s="14"/>
+      <c r="C411" s="21"/>
     </row>
     <row r="412" ht="12.0" customHeight="1">
-      <c r="C412" s="14"/>
+      <c r="C412" s="21"/>
     </row>
     <row r="413" ht="12.0" customHeight="1">
-      <c r="C413" s="14"/>
+      <c r="C413" s="21"/>
     </row>
     <row r="414" ht="12.0" customHeight="1">
-      <c r="C414" s="14"/>
+      <c r="C414" s="21"/>
     </row>
     <row r="415" ht="12.0" customHeight="1">
-      <c r="C415" s="14"/>
+      <c r="C415" s="21"/>
     </row>
     <row r="416" ht="12.0" customHeight="1">
-      <c r="C416" s="14"/>
+      <c r="C416" s="21"/>
     </row>
     <row r="417" ht="12.0" customHeight="1">
-      <c r="C417" s="14"/>
+      <c r="C417" s="21"/>
     </row>
     <row r="418" ht="12.0" customHeight="1">
-      <c r="C418" s="14"/>
+      <c r="C418" s="21"/>
     </row>
     <row r="419" ht="12.0" customHeight="1">
-      <c r="C419" s="14"/>
+      <c r="C419" s="21"/>
     </row>
     <row r="420" ht="12.0" customHeight="1">
-      <c r="C420" s="14"/>
+      <c r="C420" s="21"/>
     </row>
     <row r="421" ht="12.0" customHeight="1">
-      <c r="C421" s="14"/>
+      <c r="C421" s="21"/>
     </row>
     <row r="422" ht="12.0" customHeight="1">
-      <c r="C422" s="14"/>
+      <c r="C422" s="21"/>
     </row>
     <row r="423" ht="12.0" customHeight="1">
-      <c r="C423" s="14"/>
+      <c r="C423" s="21"/>
     </row>
     <row r="424" ht="12.0" customHeight="1">
-      <c r="C424" s="14"/>
+      <c r="C424" s="21"/>
     </row>
     <row r="425" ht="12.0" customHeight="1">
-      <c r="C425" s="14"/>
+      <c r="C425" s="21"/>
     </row>
     <row r="426" ht="12.0" customHeight="1">
-      <c r="C426" s="14"/>
+      <c r="C426" s="21"/>
     </row>
     <row r="427" ht="12.0" customHeight="1">
-      <c r="C427" s="14"/>
+      <c r="C427" s="21"/>
     </row>
     <row r="428" ht="12.0" customHeight="1">
-      <c r="C428" s="14"/>
+      <c r="C428" s="21"/>
     </row>
     <row r="429" ht="12.0" customHeight="1">
-      <c r="C429" s="14"/>
+      <c r="C429" s="21"/>
     </row>
     <row r="430" ht="12.0" customHeight="1">
-      <c r="C430" s="14"/>
+      <c r="C430" s="21"/>
     </row>
     <row r="431" ht="12.0" customHeight="1">
-      <c r="C431" s="14"/>
+      <c r="C431" s="21"/>
     </row>
     <row r="432" ht="12.0" customHeight="1">
-      <c r="C432" s="14"/>
+      <c r="C432" s="21"/>
     </row>
     <row r="433" ht="12.0" customHeight="1">
-      <c r="C433" s="14"/>
+      <c r="C433" s="21"/>
     </row>
     <row r="434" ht="12.0" customHeight="1">
-      <c r="C434" s="14"/>
+      <c r="C434" s="21"/>
     </row>
     <row r="435" ht="12.0" customHeight="1">
-      <c r="C435" s="14"/>
+      <c r="C435" s="21"/>
     </row>
     <row r="436" ht="12.0" customHeight="1">
-      <c r="C436" s="14"/>
+      <c r="C436" s="21"/>
     </row>
     <row r="437" ht="12.0" customHeight="1">
-      <c r="C437" s="14"/>
+      <c r="C437" s="21"/>
     </row>
     <row r="438" ht="12.0" customHeight="1">
-      <c r="C438" s="14"/>
+      <c r="C438" s="21"/>
     </row>
     <row r="439" ht="12.0" customHeight="1">
-      <c r="C439" s="14"/>
+      <c r="C439" s="21"/>
     </row>
     <row r="440" ht="12.0" customHeight="1">
-      <c r="C440" s="14"/>
+      <c r="C440" s="21"/>
     </row>
     <row r="441" ht="12.0" customHeight="1">
-      <c r="C441" s="14"/>
+      <c r="C441" s="21"/>
     </row>
     <row r="442" ht="12.0" customHeight="1">
-      <c r="C442" s="14"/>
+      <c r="C442" s="21"/>
     </row>
     <row r="443" ht="12.0" customHeight="1">
-      <c r="C443" s="14"/>
+      <c r="C443" s="21"/>
     </row>
     <row r="444" ht="12.0" customHeight="1">
-      <c r="C444" s="14"/>
+      <c r="C444" s="21"/>
     </row>
     <row r="445" ht="12.0" customHeight="1">
-      <c r="C445" s="14"/>
+      <c r="C445" s="21"/>
     </row>
     <row r="446" ht="12.0" customHeight="1">
-      <c r="C446" s="14"/>
+      <c r="C446" s="21"/>
     </row>
     <row r="447" ht="12.0" customHeight="1">
-      <c r="C447" s="14"/>
+      <c r="C447" s="21"/>
     </row>
     <row r="448" ht="12.0" customHeight="1">
-      <c r="C448" s="14"/>
+      <c r="C448" s="21"/>
     </row>
     <row r="449" ht="12.0" customHeight="1">
-      <c r="C449" s="14"/>
+      <c r="C449" s="21"/>
     </row>
     <row r="450" ht="12.0" customHeight="1">
-      <c r="C450" s="14"/>
+      <c r="C450" s="21"/>
     </row>
     <row r="451" ht="12.0" customHeight="1">
-      <c r="C451" s="14"/>
+      <c r="C451" s="21"/>
     </row>
     <row r="452" ht="12.0" customHeight="1">
-      <c r="C452" s="14"/>
+      <c r="C452" s="21"/>
     </row>
     <row r="453" ht="12.0" customHeight="1">
-      <c r="C453" s="14"/>
+      <c r="C453" s="21"/>
     </row>
     <row r="454" ht="12.0" customHeight="1">
-      <c r="C454" s="14"/>
+      <c r="C454" s="21"/>
     </row>
     <row r="455" ht="12.0" customHeight="1">
-      <c r="C455" s="14"/>
+      <c r="C455" s="21"/>
     </row>
     <row r="456" ht="12.0" customHeight="1">
-      <c r="C456" s="14"/>
+      <c r="C456" s="21"/>
     </row>
     <row r="457" ht="12.0" customHeight="1">
-      <c r="C457" s="14"/>
+      <c r="C457" s="21"/>
     </row>
     <row r="458" ht="12.0" customHeight="1">
-      <c r="C458" s="14"/>
+      <c r="C458" s="21"/>
     </row>
     <row r="459" ht="12.0" customHeight="1">
-      <c r="C459" s="14"/>
+      <c r="C459" s="21"/>
     </row>
     <row r="460" ht="12.0" customHeight="1">
-      <c r="C460" s="14"/>
+      <c r="C460" s="21"/>
     </row>
     <row r="461" ht="12.0" customHeight="1">
-      <c r="C461" s="14"/>
+      <c r="C461" s="21"/>
     </row>
     <row r="462" ht="12.0" customHeight="1">
-      <c r="C462" s="14"/>
+      <c r="C462" s="21"/>
     </row>
     <row r="463" ht="12.0" customHeight="1">
-      <c r="C463" s="14"/>
+      <c r="C463" s="21"/>
     </row>
     <row r="464" ht="12.0" customHeight="1">
-      <c r="C464" s="14"/>
+      <c r="C464" s="21"/>
     </row>
     <row r="465" ht="12.0" customHeight="1">
-      <c r="C465" s="14"/>
+      <c r="C465" s="21"/>
     </row>
     <row r="466" ht="12.0" customHeight="1">
-      <c r="C466" s="14"/>
+      <c r="C466" s="21"/>
     </row>
     <row r="467" ht="12.0" customHeight="1">
-      <c r="C467" s="14"/>
+      <c r="C467" s="21"/>
     </row>
     <row r="468" ht="12.0" customHeight="1">
-      <c r="C468" s="14"/>
+      <c r="C468" s="21"/>
     </row>
     <row r="469" ht="12.0" customHeight="1">
-      <c r="C469" s="14"/>
+      <c r="C469" s="21"/>
     </row>
     <row r="470" ht="12.0" customHeight="1">
-      <c r="C470" s="14"/>
+      <c r="C470" s="21"/>
     </row>
     <row r="471" ht="12.0" customHeight="1">
-      <c r="C471" s="14"/>
+      <c r="C471" s="21"/>
     </row>
     <row r="472" ht="12.0" customHeight="1">
-      <c r="C472" s="14"/>
+      <c r="C472" s="21"/>
     </row>
     <row r="473" ht="12.0" customHeight="1">
-      <c r="C473" s="14"/>
+      <c r="C473" s="21"/>
     </row>
     <row r="474" ht="12.0" customHeight="1">
-      <c r="C474" s="14"/>
+      <c r="C474" s="21"/>
     </row>
     <row r="475" ht="12.0" customHeight="1">
-      <c r="C475" s="14"/>
+      <c r="C475" s="21"/>
     </row>
     <row r="476" ht="12.0" customHeight="1">
-      <c r="C476" s="14"/>
+      <c r="C476" s="21"/>
     </row>
     <row r="477" ht="12.0" customHeight="1">
-      <c r="C477" s="14"/>
+      <c r="C477" s="21"/>
     </row>
     <row r="478" ht="12.0" customHeight="1">
-      <c r="C478" s="14"/>
+      <c r="C478" s="21"/>
     </row>
     <row r="479" ht="12.0" customHeight="1">
-      <c r="C479" s="14"/>
+      <c r="C479" s="21"/>
     </row>
     <row r="480" ht="12.0" customHeight="1">
-      <c r="C480" s="14"/>
+      <c r="C480" s="21"/>
     </row>
     <row r="481" ht="12.0" customHeight="1">
-      <c r="C481" s="14"/>
+      <c r="C481" s="21"/>
     </row>
     <row r="482" ht="12.0" customHeight="1">
-      <c r="C482" s="14"/>
+      <c r="C482" s="21"/>
     </row>
     <row r="483" ht="12.0" customHeight="1">
-      <c r="C483" s="14"/>
+      <c r="C483" s="21"/>
     </row>
     <row r="484" ht="12.0" customHeight="1">
-      <c r="C484" s="14"/>
+      <c r="C484" s="21"/>
     </row>
     <row r="485" ht="12.0" customHeight="1">
-      <c r="C485" s="14"/>
+      <c r="C485" s="21"/>
     </row>
     <row r="486" ht="12.0" customHeight="1">
-      <c r="C486" s="14"/>
+      <c r="C486" s="21"/>
     </row>
     <row r="487" ht="12.0" customHeight="1">
-      <c r="C487" s="14"/>
+      <c r="C487" s="21"/>
     </row>
     <row r="488" ht="12.0" customHeight="1">
-      <c r="C488" s="14"/>
+      <c r="C488" s="21"/>
     </row>
     <row r="489" ht="12.0" customHeight="1">
-      <c r="C489" s="14"/>
+      <c r="C489" s="21"/>
     </row>
     <row r="490" ht="12.0" customHeight="1">
-      <c r="C490" s="14"/>
+      <c r="C490" s="21"/>
     </row>
     <row r="491" ht="12.0" customHeight="1">
-      <c r="C491" s="14"/>
+      <c r="C491" s="21"/>
     </row>
     <row r="492" ht="12.0" customHeight="1">
-      <c r="C492" s="14"/>
+      <c r="C492" s="21"/>
     </row>
     <row r="493" ht="12.0" customHeight="1">
-      <c r="C493" s="14"/>
+      <c r="C493" s="21"/>
     </row>
     <row r="494" ht="12.0" customHeight="1">
-      <c r="C494" s="14"/>
+      <c r="C494" s="21"/>
     </row>
     <row r="495" ht="12.0" customHeight="1">
-      <c r="C495" s="14"/>
+      <c r="C495" s="21"/>
     </row>
     <row r="496" ht="12.0" customHeight="1">
-      <c r="C496" s="14"/>
+      <c r="C496" s="21"/>
     </row>
     <row r="497" ht="12.0" customHeight="1">
-      <c r="C497" s="14"/>
+      <c r="C497" s="21"/>
     </row>
     <row r="498" ht="12.0" customHeight="1">
-      <c r="C498" s="14"/>
+      <c r="C498" s="21"/>
     </row>
     <row r="499" ht="12.0" customHeight="1">
-      <c r="C499" s="14"/>
+      <c r="C499" s="21"/>
     </row>
     <row r="500" ht="12.0" customHeight="1">
-      <c r="C500" s="14"/>
+      <c r="C500" s="21"/>
     </row>
     <row r="501" ht="12.0" customHeight="1">
-      <c r="C501" s="14"/>
+      <c r="C501" s="21"/>
     </row>
     <row r="502" ht="12.0" customHeight="1">
-      <c r="C502" s="14"/>
+      <c r="C502" s="21"/>
     </row>
     <row r="503" ht="12.0" customHeight="1">
-      <c r="C503" s="14"/>
+      <c r="C503" s="21"/>
     </row>
     <row r="504" ht="12.0" customHeight="1">
-      <c r="C504" s="14"/>
+      <c r="C504" s="21"/>
     </row>
     <row r="505" ht="12.0" customHeight="1">
-      <c r="C505" s="14"/>
+      <c r="C505" s="21"/>
     </row>
     <row r="506" ht="12.0" customHeight="1">
-      <c r="C506" s="14"/>
+      <c r="C506" s="21"/>
     </row>
     <row r="507" ht="12.0" customHeight="1">
-      <c r="C507" s="14"/>
+      <c r="C507" s="21"/>
     </row>
     <row r="508" ht="12.0" customHeight="1">
-      <c r="C508" s="14"/>
+      <c r="C508" s="21"/>
     </row>
     <row r="509" ht="12.0" customHeight="1">
-      <c r="C509" s="14"/>
+      <c r="C509" s="21"/>
     </row>
     <row r="510" ht="12.0" customHeight="1">
-      <c r="C510" s="14"/>
+      <c r="C510" s="21"/>
     </row>
     <row r="511" ht="12.0" customHeight="1">
-      <c r="C511" s="14"/>
+      <c r="C511" s="21"/>
     </row>
     <row r="512" ht="12.0" customHeight="1">
-      <c r="C512" s="14"/>
+      <c r="C512" s="21"/>
     </row>
     <row r="513" ht="12.0" customHeight="1">
-      <c r="C513" s="14"/>
+      <c r="C513" s="21"/>
     </row>
     <row r="514" ht="12.0" customHeight="1">
-      <c r="C514" s="14"/>
+      <c r="C514" s="21"/>
     </row>
     <row r="515" ht="12.0" customHeight="1">
-      <c r="C515" s="14"/>
+      <c r="C515" s="21"/>
     </row>
     <row r="516" ht="12.0" customHeight="1">
-      <c r="C516" s="14"/>
+      <c r="C516" s="21"/>
     </row>
     <row r="517" ht="12.0" customHeight="1">
-      <c r="C517" s="14"/>
+      <c r="C517" s="21"/>
     </row>
     <row r="518" ht="12.0" customHeight="1">
-      <c r="C518" s="14"/>
+      <c r="C518" s="21"/>
     </row>
     <row r="519" ht="12.0" customHeight="1">
-      <c r="C519" s="14"/>
+      <c r="C519" s="21"/>
     </row>
     <row r="520" ht="12.0" customHeight="1">
-      <c r="C520" s="14"/>
+      <c r="C520" s="21"/>
     </row>
     <row r="521" ht="12.0" customHeight="1">
-      <c r="C521" s="14"/>
+      <c r="C521" s="21"/>
     </row>
     <row r="522" ht="12.0" customHeight="1">
-      <c r="C522" s="14"/>
+      <c r="C522" s="21"/>
     </row>
     <row r="523" ht="12.0" customHeight="1">
-      <c r="C523" s="14"/>
+      <c r="C523" s="21"/>
     </row>
     <row r="524" ht="12.0" customHeight="1">
-      <c r="C524" s="14"/>
+      <c r="C524" s="21"/>
     </row>
     <row r="525" ht="12.0" customHeight="1">
-      <c r="C525" s="14"/>
+      <c r="C525" s="21"/>
     </row>
     <row r="526" ht="12.0" customHeight="1">
-      <c r="C526" s="14"/>
+      <c r="C526" s="21"/>
     </row>
     <row r="527" ht="12.0" customHeight="1">
-      <c r="C527" s="14"/>
+      <c r="C527" s="21"/>
     </row>
     <row r="528" ht="12.0" customHeight="1">
-      <c r="C528" s="14"/>
+      <c r="C528" s="21"/>
     </row>
     <row r="529" ht="12.0" customHeight="1">
-      <c r="C529" s="14"/>
+      <c r="C529" s="21"/>
     </row>
     <row r="530" ht="12.0" customHeight="1">
-      <c r="C530" s="14"/>
+      <c r="C530" s="21"/>
     </row>
     <row r="531" ht="12.0" customHeight="1">
-      <c r="C531" s="14"/>
+      <c r="C531" s="21"/>
     </row>
     <row r="532" ht="12.0" customHeight="1">
-      <c r="C532" s="14"/>
+      <c r="C532" s="21"/>
     </row>
     <row r="533" ht="12.0" customHeight="1">
-      <c r="C533" s="14"/>
+      <c r="C533" s="21"/>
     </row>
     <row r="534" ht="12.0" customHeight="1">
-      <c r="C534" s="14"/>
+      <c r="C534" s="21"/>
     </row>
     <row r="535" ht="12.0" customHeight="1">
-      <c r="C535" s="14"/>
+      <c r="C535" s="21"/>
     </row>
     <row r="536" ht="12.0" customHeight="1">
-      <c r="C536" s="14"/>
+      <c r="C536" s="21"/>
     </row>
     <row r="537" ht="12.0" customHeight="1">
-      <c r="C537" s="14"/>
+      <c r="C537" s="21"/>
     </row>
     <row r="538" ht="12.0" customHeight="1">
-      <c r="C538" s="14"/>
+      <c r="C538" s="21"/>
     </row>
     <row r="539" ht="12.0" customHeight="1">
-      <c r="C539" s="14"/>
+      <c r="C539" s="21"/>
     </row>
     <row r="540" ht="12.0" customHeight="1">
-      <c r="C540" s="14"/>
+      <c r="C540" s="21"/>
     </row>
     <row r="541" ht="12.0" customHeight="1">
-      <c r="C541" s="14"/>
+      <c r="C541" s="21"/>
     </row>
     <row r="542" ht="12.0" customHeight="1">
-      <c r="C542" s="14"/>
+      <c r="C542" s="21"/>
     </row>
     <row r="543" ht="12.0" customHeight="1">
-      <c r="C543" s="14"/>
+      <c r="C543" s="21"/>
     </row>
     <row r="544" ht="12.0" customHeight="1">
-      <c r="C544" s="14"/>
+      <c r="C544" s="21"/>
     </row>
     <row r="545" ht="12.0" customHeight="1">
-      <c r="C545" s="14"/>
+      <c r="C545" s="21"/>
     </row>
     <row r="546" ht="12.0" customHeight="1">
-      <c r="C546" s="14"/>
+      <c r="C546" s="21"/>
     </row>
     <row r="547" ht="12.0" customHeight="1">
-      <c r="C547" s="14"/>
+      <c r="C547" s="21"/>
     </row>
     <row r="548" ht="12.0" customHeight="1">
-      <c r="C548" s="14"/>
+      <c r="C548" s="21"/>
     </row>
     <row r="549" ht="12.0" customHeight="1">
-      <c r="C549" s="14"/>
+      <c r="C549" s="21"/>
     </row>
     <row r="550" ht="12.0" customHeight="1">
-      <c r="C550" s="14"/>
+      <c r="C550" s="21"/>
     </row>
     <row r="551" ht="12.0" customHeight="1">
-      <c r="C551" s="14"/>
+      <c r="C551" s="21"/>
     </row>
     <row r="552" ht="12.0" customHeight="1">
-      <c r="C552" s="14"/>
+      <c r="C552" s="21"/>
     </row>
     <row r="553" ht="12.0" customHeight="1">
-      <c r="C553" s="14"/>
+      <c r="C553" s="21"/>
     </row>
     <row r="554" ht="12.0" customHeight="1">
-      <c r="C554" s="14"/>
+      <c r="C554" s="21"/>
     </row>
     <row r="555" ht="12.0" customHeight="1">
-      <c r="C555" s="14"/>
+      <c r="C555" s="21"/>
     </row>
     <row r="556" ht="12.0" customHeight="1">
-      <c r="C556" s="14"/>
+      <c r="C556" s="21"/>
     </row>
     <row r="557" ht="12.0" customHeight="1">
-      <c r="C557" s="14"/>
+      <c r="C557" s="21"/>
     </row>
     <row r="558" ht="12.0" customHeight="1">
-      <c r="C558" s="14"/>
+      <c r="C558" s="21"/>
     </row>
     <row r="559" ht="12.0" customHeight="1">
-      <c r="C559" s="14"/>
+      <c r="C559" s="21"/>
     </row>
     <row r="560" ht="12.0" customHeight="1">
-      <c r="C560" s="14"/>
+      <c r="C560" s="21"/>
     </row>
     <row r="561" ht="12.0" customHeight="1">
-      <c r="C561" s="14"/>
+      <c r="C561" s="21"/>
     </row>
     <row r="562" ht="12.0" customHeight="1">
-      <c r="C562" s="14"/>
+      <c r="C562" s="21"/>
     </row>
     <row r="563" ht="12.0" customHeight="1">
-      <c r="C563" s="14"/>
+      <c r="C563" s="21"/>
     </row>
     <row r="564" ht="12.0" customHeight="1">
-      <c r="C564" s="14"/>
+      <c r="C564" s="21"/>
     </row>
     <row r="565" ht="12.0" customHeight="1">
-      <c r="C565" s="14"/>
+      <c r="C565" s="21"/>
     </row>
     <row r="566" ht="12.0" customHeight="1">
-      <c r="C566" s="14"/>
+      <c r="C566" s="21"/>
     </row>
     <row r="567" ht="12.0" customHeight="1">
-      <c r="C567" s="14"/>
+      <c r="C567" s="21"/>
     </row>
     <row r="568" ht="12.0" customHeight="1">
-      <c r="C568" s="14"/>
+      <c r="C568" s="21"/>
     </row>
     <row r="569" ht="12.0" customHeight="1">
-      <c r="C569" s="14"/>
+      <c r="C569" s="21"/>
     </row>
     <row r="570" ht="12.0" customHeight="1">
-      <c r="C570" s="14"/>
+      <c r="C570" s="21"/>
     </row>
     <row r="571" ht="12.0" customHeight="1">
-      <c r="C571" s="14"/>
+      <c r="C571" s="21"/>
     </row>
     <row r="572" ht="12.0" customHeight="1">
-      <c r="C572" s="14"/>
+      <c r="C572" s="21"/>
     </row>
     <row r="573" ht="12.0" customHeight="1">
-      <c r="C573" s="14"/>
+      <c r="C573" s="21"/>
     </row>
     <row r="574" ht="12.0" customHeight="1">
-      <c r="C574" s="14"/>
+      <c r="C574" s="21"/>
     </row>
     <row r="575" ht="12.0" customHeight="1">
-      <c r="C575" s="14"/>
+      <c r="C575" s="21"/>
     </row>
     <row r="576" ht="12.0" customHeight="1">
-      <c r="C576" s="14"/>
+      <c r="C576" s="21"/>
     </row>
     <row r="577" ht="12.0" customHeight="1">
-      <c r="C577" s="14"/>
+      <c r="C577" s="21"/>
     </row>
     <row r="578" ht="12.0" customHeight="1">
-      <c r="C578" s="14"/>
+      <c r="C578" s="21"/>
     </row>
     <row r="579" ht="12.0" customHeight="1">
-      <c r="C579" s="14"/>
+      <c r="C579" s="21"/>
     </row>
     <row r="580" ht="12.0" customHeight="1">
-      <c r="C580" s="14"/>
+      <c r="C580" s="21"/>
     </row>
     <row r="581" ht="12.0" customHeight="1">
-      <c r="C581" s="14"/>
+      <c r="C581" s="21"/>
     </row>
     <row r="582" ht="12.0" customHeight="1">
-      <c r="C582" s="14"/>
+      <c r="C582" s="21"/>
     </row>
     <row r="583" ht="12.0" customHeight="1">
-      <c r="C583" s="14"/>
+      <c r="C583" s="21"/>
     </row>
     <row r="584" ht="12.0" customHeight="1">
-      <c r="C584" s="14"/>
+      <c r="C584" s="21"/>
     </row>
     <row r="585" ht="12.0" customHeight="1">
-      <c r="C585" s="14"/>
+      <c r="C585" s="21"/>
     </row>
     <row r="586" ht="12.0" customHeight="1">
-      <c r="C586" s="14"/>
+      <c r="C586" s="21"/>
     </row>
     <row r="587" ht="12.0" customHeight="1">
-      <c r="C587" s="14"/>
+      <c r="C587" s="21"/>
     </row>
     <row r="588" ht="12.0" customHeight="1">
-      <c r="C588" s="14"/>
+      <c r="C588" s="21"/>
     </row>
     <row r="589" ht="12.0" customHeight="1">
-      <c r="C589" s="14"/>
+      <c r="C589" s="21"/>
     </row>
     <row r="590" ht="12.0" customHeight="1">
-      <c r="C590" s="14"/>
+      <c r="C590" s="21"/>
     </row>
     <row r="591" ht="12.0" customHeight="1">
-      <c r="C591" s="14"/>
+      <c r="C591" s="21"/>
     </row>
     <row r="592" ht="12.0" customHeight="1">
-      <c r="C592" s="14"/>
+      <c r="C592" s="21"/>
     </row>
     <row r="593" ht="12.0" customHeight="1">
-      <c r="C593" s="14"/>
+      <c r="C593" s="21"/>
     </row>
     <row r="594" ht="12.0" customHeight="1">
-      <c r="C594" s="14"/>
+      <c r="C594" s="21"/>
     </row>
     <row r="595" ht="12.0" customHeight="1">
-      <c r="C595" s="14"/>
+      <c r="C595" s="21"/>
     </row>
     <row r="596" ht="12.0" customHeight="1">
-      <c r="C596" s="14"/>
+      <c r="C596" s="21"/>
     </row>
     <row r="597" ht="12.0" customHeight="1">
-      <c r="C597" s="14"/>
+      <c r="C597" s="21"/>
     </row>
     <row r="598" ht="12.0" customHeight="1">
-      <c r="C598" s="14"/>
+      <c r="C598" s="21"/>
     </row>
     <row r="599" ht="12.0" customHeight="1">
-      <c r="C599" s="14"/>
+      <c r="C599" s="21"/>
     </row>
     <row r="600" ht="12.0" customHeight="1">
-      <c r="C600" s="14"/>
+      <c r="C600" s="21"/>
     </row>
     <row r="601" ht="12.0" customHeight="1">
-      <c r="C601" s="14"/>
+      <c r="C601" s="21"/>
     </row>
     <row r="602" ht="12.0" customHeight="1">
-      <c r="C602" s="14"/>
+      <c r="C602" s="21"/>
     </row>
     <row r="603" ht="12.0" customHeight="1">
-      <c r="C603" s="14"/>
+      <c r="C603" s="21"/>
     </row>
     <row r="604" ht="12.0" customHeight="1">
-      <c r="C604" s="14"/>
+      <c r="C604" s="21"/>
     </row>
     <row r="605" ht="12.0" customHeight="1">
-      <c r="C605" s="14"/>
+      <c r="C605" s="21"/>
     </row>
     <row r="606" ht="12.0" customHeight="1">
-      <c r="C606" s="14"/>
+      <c r="C606" s="21"/>
     </row>
     <row r="607" ht="12.0" customHeight="1">
-      <c r="C607" s="14"/>
+      <c r="C607" s="21"/>
     </row>
     <row r="608" ht="12.0" customHeight="1">
-      <c r="C608" s="14"/>
+      <c r="C608" s="21"/>
     </row>
     <row r="609" ht="12.0" customHeight="1">
-      <c r="C609" s="14"/>
+      <c r="C609" s="21"/>
     </row>
     <row r="610" ht="12.0" customHeight="1">
-      <c r="C610" s="14"/>
+      <c r="C610" s="21"/>
     </row>
     <row r="611" ht="12.0" customHeight="1">
-      <c r="C611" s="14"/>
+      <c r="C611" s="21"/>
     </row>
     <row r="612" ht="12.0" customHeight="1">
-      <c r="C612" s="14"/>
+      <c r="C612" s="21"/>
     </row>
     <row r="613" ht="12.0" customHeight="1">
-      <c r="C613" s="14"/>
+      <c r="C613" s="21"/>
     </row>
     <row r="614" ht="12.0" customHeight="1">
-      <c r="C614" s="14"/>
+      <c r="C614" s="21"/>
     </row>
     <row r="615" ht="12.0" customHeight="1">
-      <c r="C615" s="14"/>
+      <c r="C615" s="21"/>
     </row>
     <row r="616" ht="12.0" customHeight="1">
-      <c r="C616" s="14"/>
+      <c r="C616" s="21"/>
     </row>
     <row r="617" ht="12.0" customHeight="1">
-      <c r="C617" s="14"/>
+      <c r="C617" s="21"/>
     </row>
     <row r="618" ht="12.0" customHeight="1">
-      <c r="C618" s="14"/>
+      <c r="C618" s="21"/>
     </row>
     <row r="619" ht="12.0" customHeight="1">
-      <c r="C619" s="14"/>
+      <c r="C619" s="21"/>
     </row>
     <row r="620" ht="12.0" customHeight="1">
-      <c r="C620" s="14"/>
+      <c r="C620" s="21"/>
     </row>
     <row r="621" ht="12.0" customHeight="1">
-      <c r="C621" s="14"/>
+      <c r="C621" s="21"/>
     </row>
     <row r="622" ht="12.0" customHeight="1">
-      <c r="C622" s="14"/>
+      <c r="C622" s="21"/>
     </row>
     <row r="623" ht="12.0" customHeight="1">
-      <c r="C623" s="14"/>
+      <c r="C623" s="21"/>
     </row>
     <row r="624" ht="12.0" customHeight="1">
-      <c r="C624" s="14"/>
+      <c r="C624" s="21"/>
     </row>
     <row r="625" ht="12.0" customHeight="1">
-      <c r="C625" s="14"/>
+      <c r="C625" s="21"/>
     </row>
     <row r="626" ht="12.0" customHeight="1">
-      <c r="C626" s="14"/>
+      <c r="C626" s="21"/>
     </row>
     <row r="627" ht="12.0" customHeight="1">
-      <c r="C627" s="14"/>
+      <c r="C627" s="21"/>
     </row>
     <row r="628" ht="12.0" customHeight="1">
-      <c r="C628" s="14"/>
+      <c r="C628" s="21"/>
     </row>
     <row r="629" ht="12.0" customHeight="1">
-      <c r="C629" s="14"/>
+      <c r="C629" s="21"/>
     </row>
     <row r="630" ht="12.0" customHeight="1">
-      <c r="C630" s="14"/>
+      <c r="C630" s="21"/>
     </row>
     <row r="631" ht="12.0" customHeight="1">
-      <c r="C631" s="14"/>
+      <c r="C631" s="21"/>
     </row>
     <row r="632" ht="12.0" customHeight="1">
-      <c r="C632" s="14"/>
+      <c r="C632" s="21"/>
     </row>
     <row r="633" ht="12.0" customHeight="1">
-      <c r="C633" s="14"/>
+      <c r="C633" s="21"/>
     </row>
     <row r="634" ht="12.0" customHeight="1">
-      <c r="C634" s="14"/>
+      <c r="C634" s="21"/>
     </row>
     <row r="635" ht="12.0" customHeight="1">
-      <c r="C635" s="14"/>
+      <c r="C635" s="21"/>
     </row>
     <row r="636" ht="12.0" customHeight="1">
-      <c r="C636" s="14"/>
+      <c r="C636" s="21"/>
     </row>
     <row r="637" ht="12.0" customHeight="1">
-      <c r="C637" s="14"/>
+      <c r="C637" s="21"/>
     </row>
     <row r="638" ht="12.0" customHeight="1">
-      <c r="C638" s="14"/>
+      <c r="C638" s="21"/>
     </row>
     <row r="639" ht="12.0" customHeight="1">
-      <c r="C639" s="14"/>
+      <c r="C639" s="21"/>
     </row>
     <row r="640" ht="12.0" customHeight="1">
-      <c r="C640" s="14"/>
+      <c r="C640" s="21"/>
     </row>
     <row r="641" ht="12.0" customHeight="1">
-      <c r="C641" s="14"/>
+      <c r="C641" s="21"/>
     </row>
     <row r="642" ht="12.0" customHeight="1">
-      <c r="C642" s="14"/>
+      <c r="C642" s="21"/>
     </row>
     <row r="643" ht="12.0" customHeight="1">
-      <c r="C643" s="14"/>
+      <c r="C643" s="21"/>
     </row>
     <row r="644" ht="12.0" customHeight="1">
-      <c r="C644" s="14"/>
+      <c r="C644" s="21"/>
     </row>
     <row r="645" ht="12.0" customHeight="1">
-      <c r="C645" s="14"/>
+      <c r="C645" s="21"/>
     </row>
     <row r="646" ht="12.0" customHeight="1">
-      <c r="C646" s="14"/>
+      <c r="C646" s="21"/>
     </row>
     <row r="647" ht="12.0" customHeight="1">
-      <c r="C647" s="14"/>
+      <c r="C647" s="21"/>
     </row>
     <row r="648" ht="12.0" customHeight="1">
-      <c r="C648" s="14"/>
+      <c r="C648" s="21"/>
     </row>
     <row r="649" ht="12.0" customHeight="1">
-      <c r="C649" s="14"/>
+      <c r="C649" s="21"/>
     </row>
     <row r="650" ht="12.0" customHeight="1">
-      <c r="C650" s="14"/>
+      <c r="C650" s="21"/>
     </row>
     <row r="651" ht="12.0" customHeight="1">
-      <c r="C651" s="14"/>
+      <c r="C651" s="21"/>
     </row>
     <row r="652" ht="12.0" customHeight="1">
-      <c r="C652" s="14"/>
+      <c r="C652" s="21"/>
     </row>
     <row r="653" ht="12.0" customHeight="1">
-      <c r="C653" s="14"/>
+      <c r="C653" s="21"/>
     </row>
     <row r="654" ht="12.0" customHeight="1">
-      <c r="C654" s="14"/>
+      <c r="C654" s="21"/>
     </row>
     <row r="655" ht="12.0" customHeight="1">
-      <c r="C655" s="14"/>
+      <c r="C655" s="21"/>
     </row>
     <row r="656" ht="12.0" customHeight="1">
-      <c r="C656" s="14"/>
+      <c r="C656" s="21"/>
     </row>
     <row r="657" ht="12.0" customHeight="1">
-      <c r="C657" s="14"/>
+      <c r="C657" s="21"/>
     </row>
     <row r="658" ht="12.0" customHeight="1">
-      <c r="C658" s="14"/>
+      <c r="C658" s="21"/>
     </row>
     <row r="659" ht="12.0" customHeight="1">
-      <c r="C659" s="14"/>
+      <c r="C659" s="21"/>
     </row>
     <row r="660" ht="12.0" customHeight="1">
-      <c r="C660" s="14"/>
+      <c r="C660" s="21"/>
     </row>
     <row r="661" ht="12.0" customHeight="1">
-      <c r="C661" s="14"/>
+      <c r="C661" s="21"/>
     </row>
     <row r="662" ht="12.0" customHeight="1">
-      <c r="C662" s="14"/>
+      <c r="C662" s="21"/>
     </row>
     <row r="663" ht="12.0" customHeight="1">
-      <c r="C663" s="14"/>
+      <c r="C663" s="21"/>
     </row>
     <row r="664" ht="12.0" customHeight="1">
-      <c r="C664" s="14"/>
+      <c r="C664" s="21"/>
     </row>
     <row r="665" ht="12.0" customHeight="1">
-      <c r="C665" s="14"/>
+      <c r="C665" s="21"/>
     </row>
     <row r="666" ht="12.0" customHeight="1">
-      <c r="C666" s="14"/>
+      <c r="C666" s="21"/>
     </row>
     <row r="667" ht="12.0" customHeight="1">
-      <c r="C667" s="14"/>
+      <c r="C667" s="21"/>
     </row>
     <row r="668" ht="12.0" customHeight="1">
-      <c r="C668" s="14"/>
+      <c r="C668" s="21"/>
     </row>
     <row r="669" ht="12.0" customHeight="1">
-      <c r="C669" s="14"/>
+      <c r="C669" s="21"/>
     </row>
     <row r="670" ht="12.0" customHeight="1">
-      <c r="C670" s="14"/>
+      <c r="C670" s="21"/>
     </row>
     <row r="671" ht="12.0" customHeight="1">
-      <c r="C671" s="14"/>
+      <c r="C671" s="21"/>
     </row>
     <row r="672" ht="12.0" customHeight="1">
-      <c r="C672" s="14"/>
+      <c r="C672" s="21"/>
     </row>
     <row r="673" ht="12.0" customHeight="1">
-      <c r="C673" s="14"/>
+      <c r="C673" s="21"/>
     </row>
     <row r="674" ht="12.0" customHeight="1">
-      <c r="C674" s="14"/>
+      <c r="C674" s="21"/>
     </row>
     <row r="675" ht="12.0" customHeight="1">
-      <c r="C675" s="14"/>
+      <c r="C675" s="21"/>
     </row>
     <row r="676" ht="12.0" customHeight="1">
-      <c r="C676" s="14"/>
+      <c r="C676" s="21"/>
     </row>
     <row r="677" ht="12.0" customHeight="1">
-      <c r="C677" s="14"/>
+      <c r="C677" s="21"/>
     </row>
     <row r="678" ht="12.0" customHeight="1">
-      <c r="C678" s="14"/>
+      <c r="C678" s="21"/>
     </row>
     <row r="679" ht="12.0" customHeight="1">
-      <c r="C679" s="14"/>
+      <c r="C679" s="21"/>
     </row>
     <row r="680" ht="12.0" customHeight="1">
-      <c r="C680" s="14"/>
+      <c r="C680" s="21"/>
     </row>
     <row r="681" ht="12.0" customHeight="1">
-      <c r="C681" s="14"/>
+      <c r="C681" s="21"/>
     </row>
     <row r="682" ht="12.0" customHeight="1">
-      <c r="C682" s="14"/>
+      <c r="C682" s="21"/>
     </row>
     <row r="683" ht="12.0" customHeight="1">
-      <c r="C683" s="14"/>
+      <c r="C683" s="21"/>
     </row>
     <row r="684" ht="12.0" customHeight="1">
-      <c r="C684" s="14"/>
+      <c r="C684" s="21"/>
     </row>
     <row r="685" ht="12.0" customHeight="1">
-      <c r="C685" s="14"/>
+      <c r="C685" s="21"/>
     </row>
     <row r="686" ht="12.0" customHeight="1">
-      <c r="C686" s="14"/>
+      <c r="C686" s="21"/>
     </row>
     <row r="687" ht="12.0" customHeight="1">
-      <c r="C687" s="14"/>
+      <c r="C687" s="21"/>
     </row>
     <row r="688" ht="12.0" customHeight="1">
-      <c r="C688" s="14"/>
+      <c r="C688" s="21"/>
     </row>
     <row r="689" ht="12.0" customHeight="1">
-      <c r="C689" s="14"/>
+      <c r="C689" s="21"/>
     </row>
     <row r="690" ht="12.0" customHeight="1">
-      <c r="C690" s="14"/>
+      <c r="C690" s="21"/>
     </row>
     <row r="691" ht="12.0" customHeight="1">
-      <c r="C691" s="14"/>
+      <c r="C691" s="21"/>
     </row>
     <row r="692" ht="12.0" customHeight="1">
-      <c r="C692" s="14"/>
+      <c r="C692" s="21"/>
     </row>
     <row r="693" ht="12.0" customHeight="1">
-      <c r="C693" s="14"/>
+      <c r="C693" s="21"/>
     </row>
     <row r="694" ht="12.0" customHeight="1">
-      <c r="C694" s="14"/>
+      <c r="C694" s="21"/>
     </row>
     <row r="695" ht="12.0" customHeight="1">
-      <c r="C695" s="14"/>
+      <c r="C695" s="21"/>
     </row>
     <row r="696" ht="12.0" customHeight="1">
-      <c r="C696" s="14"/>
+      <c r="C696" s="21"/>
     </row>
     <row r="697" ht="12.0" customHeight="1">
-      <c r="C697" s="14"/>
+      <c r="C697" s="21"/>
     </row>
     <row r="698" ht="12.0" customHeight="1">
-      <c r="C698" s="14"/>
+      <c r="C698" s="21"/>
     </row>
     <row r="699" ht="12.0" customHeight="1">
-      <c r="C699" s="14"/>
+      <c r="C699" s="21"/>
     </row>
     <row r="700" ht="12.0" customHeight="1">
-      <c r="C700" s="14"/>
+      <c r="C700" s="21"/>
     </row>
     <row r="701" ht="12.0" customHeight="1">
-      <c r="C701" s="14"/>
+      <c r="C701" s="21"/>
     </row>
     <row r="702" ht="12.0" customHeight="1">
-      <c r="C702" s="14"/>
+      <c r="C702" s="21"/>
     </row>
     <row r="703" ht="12.0" customHeight="1">
-      <c r="C703" s="14"/>
+      <c r="C703" s="21"/>
     </row>
     <row r="704" ht="12.0" customHeight="1">
-      <c r="C704" s="14"/>
+      <c r="C704" s="21"/>
     </row>
     <row r="705" ht="12.0" customHeight="1">
-      <c r="C705" s="14"/>
+      <c r="C705" s="21"/>
     </row>
     <row r="706" ht="12.0" customHeight="1">
-      <c r="C706" s="14"/>
+      <c r="C706" s="21"/>
     </row>
     <row r="707" ht="12.0" customHeight="1">
-      <c r="C707" s="14"/>
+      <c r="C707" s="21"/>
     </row>
     <row r="708" ht="12.0" customHeight="1">
-      <c r="C708" s="14"/>
+      <c r="C708" s="21"/>
     </row>
     <row r="709" ht="12.0" customHeight="1">
-      <c r="C709" s="14"/>
+      <c r="C709" s="21"/>
     </row>
     <row r="710" ht="12.0" customHeight="1">
-      <c r="C710" s="14"/>
+      <c r="C710" s="21"/>
     </row>
     <row r="711" ht="12.0" customHeight="1">
-      <c r="C711" s="14"/>
+      <c r="C711" s="21"/>
     </row>
     <row r="712" ht="12.0" customHeight="1">
-      <c r="C712" s="14"/>
+      <c r="C712" s="21"/>
     </row>
     <row r="713" ht="12.0" customHeight="1">
-      <c r="C713" s="14"/>
+      <c r="C713" s="21"/>
     </row>
     <row r="714" ht="12.0" customHeight="1">
-      <c r="C714" s="14"/>
+      <c r="C714" s="21"/>
     </row>
     <row r="715" ht="12.0" customHeight="1">
-      <c r="C715" s="14"/>
+      <c r="C715" s="21"/>
     </row>
     <row r="716" ht="12.0" customHeight="1">
-      <c r="C716" s="14"/>
+      <c r="C716" s="21"/>
     </row>
     <row r="717" ht="12.0" customHeight="1">
-      <c r="C717" s="14"/>
+      <c r="C717" s="21"/>
     </row>
     <row r="718" ht="12.0" customHeight="1">
-      <c r="C718" s="14"/>
+      <c r="C718" s="21"/>
     </row>
     <row r="719" ht="12.0" customHeight="1">
-      <c r="C719" s="14"/>
+      <c r="C719" s="21"/>
     </row>
     <row r="720" ht="12.0" customHeight="1">
-      <c r="C720" s="14"/>
+      <c r="C720" s="21"/>
     </row>
     <row r="721" ht="12.0" customHeight="1">
-      <c r="C721" s="14"/>
+      <c r="C721" s="21"/>
     </row>
     <row r="722" ht="12.0" customHeight="1">
-      <c r="C722" s="14"/>
+      <c r="C722" s="21"/>
     </row>
     <row r="723" ht="12.0" customHeight="1">
-      <c r="C723" s="14"/>
+      <c r="C723" s="21"/>
     </row>
     <row r="724" ht="12.0" customHeight="1">
-      <c r="C724" s="14"/>
+      <c r="C724" s="21"/>
     </row>
     <row r="725" ht="12.0" customHeight="1">
-      <c r="C725" s="14"/>
+      <c r="C725" s="21"/>
     </row>
     <row r="726" ht="12.0" customHeight="1">
-      <c r="C726" s="14"/>
+      <c r="C726" s="21"/>
     </row>
     <row r="727" ht="12.0" customHeight="1">
-      <c r="C727" s="14"/>
+      <c r="C727" s="21"/>
     </row>
     <row r="728" ht="12.0" customHeight="1">
-      <c r="C728" s="14"/>
+      <c r="C728" s="21"/>
     </row>
     <row r="729" ht="12.0" customHeight="1">
-      <c r="C729" s="14"/>
+      <c r="C729" s="21"/>
     </row>
     <row r="730" ht="12.0" customHeight="1">
-      <c r="C730" s="14"/>
+      <c r="C730" s="21"/>
     </row>
     <row r="731" ht="12.0" customHeight="1">
-      <c r="C731" s="14"/>
+      <c r="C731" s="21"/>
     </row>
     <row r="732" ht="12.0" customHeight="1">
-      <c r="C732" s="14"/>
+      <c r="C732" s="21"/>
     </row>
     <row r="733" ht="12.0" customHeight="1">
-      <c r="C733" s="14"/>
+      <c r="C733" s="21"/>
     </row>
     <row r="734" ht="12.0" customHeight="1">
-      <c r="C734" s="14"/>
+      <c r="C734" s="21"/>
     </row>
     <row r="735" ht="12.0" customHeight="1">
-      <c r="C735" s="14"/>
+      <c r="C735" s="21"/>
     </row>
     <row r="736" ht="12.0" customHeight="1">
-      <c r="C736" s="14"/>
+      <c r="C736" s="21"/>
     </row>
     <row r="737" ht="12.0" customHeight="1">
-      <c r="C737" s="14"/>
+      <c r="C737" s="21"/>
     </row>
     <row r="738" ht="12.0" customHeight="1">
-      <c r="C738" s="14"/>
+      <c r="C738" s="21"/>
     </row>
     <row r="739" ht="12.0" customHeight="1">
-      <c r="C739" s="14"/>
+      <c r="C739" s="21"/>
     </row>
     <row r="740" ht="12.0" customHeight="1">
-      <c r="C740" s="14"/>
+      <c r="C740" s="21"/>
     </row>
     <row r="741" ht="12.0" customHeight="1">
-      <c r="C741" s="14"/>
+      <c r="C741" s="21"/>
     </row>
     <row r="742" ht="12.0" customHeight="1">
-      <c r="C742" s="14"/>
+      <c r="C742" s="21"/>
     </row>
     <row r="743" ht="12.0" customHeight="1">
-      <c r="C743" s="14"/>
+      <c r="C743" s="21"/>
     </row>
     <row r="744" ht="12.0" customHeight="1">
-      <c r="C744" s="14"/>
+      <c r="C744" s="21"/>
     </row>
     <row r="745" ht="12.0" customHeight="1">
-      <c r="C745" s="14"/>
+      <c r="C745" s="21"/>
     </row>
     <row r="746" ht="12.0" customHeight="1">
-      <c r="C746" s="14"/>
+      <c r="C746" s="21"/>
     </row>
     <row r="747" ht="12.0" customHeight="1">
-      <c r="C747" s="14"/>
+      <c r="C747" s="21"/>
     </row>
     <row r="748" ht="12.0" customHeight="1">
-      <c r="C748" s="14"/>
+      <c r="C748" s="21"/>
     </row>
     <row r="749" ht="12.0" customHeight="1">
-      <c r="C749" s="14"/>
+      <c r="C749" s="21"/>
     </row>
     <row r="750" ht="12.0" customHeight="1">
-      <c r="C750" s="14"/>
+      <c r="C750" s="21"/>
     </row>
     <row r="751" ht="12.0" customHeight="1">
-      <c r="C751" s="14"/>
+      <c r="C751" s="21"/>
     </row>
     <row r="752" ht="12.0" customHeight="1">
-      <c r="C752" s="14"/>
+      <c r="C752" s="21"/>
     </row>
     <row r="753" ht="12.0" customHeight="1">
-      <c r="C753" s="14"/>
+      <c r="C753" s="21"/>
     </row>
     <row r="754" ht="12.0" customHeight="1">
-      <c r="C754" s="14"/>
+      <c r="C754" s="21"/>
     </row>
     <row r="755" ht="12.0" customHeight="1">
-      <c r="C755" s="14"/>
+      <c r="C755" s="21"/>
     </row>
     <row r="756" ht="12.0" customHeight="1">
-      <c r="C756" s="14"/>
+      <c r="C756" s="21"/>
     </row>
     <row r="757" ht="12.0" customHeight="1">
-      <c r="C757" s="14"/>
+      <c r="C757" s="21"/>
     </row>
     <row r="758" ht="12.0" customHeight="1">
-      <c r="C758" s="14"/>
+      <c r="C758" s="21"/>
     </row>
     <row r="759" ht="12.0" customHeight="1">
-      <c r="C759" s="14"/>
+      <c r="C759" s="21"/>
     </row>
     <row r="760" ht="12.0" customHeight="1">
-      <c r="C760" s="14"/>
+      <c r="C760" s="21"/>
     </row>
     <row r="761" ht="12.0" customHeight="1">
-      <c r="C761" s="14"/>
+      <c r="C761" s="21"/>
     </row>
     <row r="762" ht="12.0" customHeight="1">
-      <c r="C762" s="14"/>
+      <c r="C762" s="21"/>
     </row>
     <row r="763" ht="12.0" customHeight="1">
-      <c r="C763" s="14"/>
+      <c r="C763" s="21"/>
     </row>
     <row r="764" ht="12.0" customHeight="1">
-      <c r="C764" s="14"/>
+      <c r="C764" s="21"/>
     </row>
     <row r="765" ht="12.0" customHeight="1">
-      <c r="C765" s="14"/>
+      <c r="C765" s="21"/>
     </row>
     <row r="766" ht="12.0" customHeight="1">
-      <c r="C766" s="14"/>
+      <c r="C766" s="21"/>
     </row>
     <row r="767" ht="12.0" customHeight="1">
-      <c r="C767" s="14"/>
+      <c r="C767" s="21"/>
     </row>
     <row r="768" ht="12.0" customHeight="1">
-      <c r="C768" s="14"/>
+      <c r="C768" s="21"/>
     </row>
     <row r="769" ht="12.0" customHeight="1">
-      <c r="C769" s="14"/>
+      <c r="C769" s="21"/>
     </row>
     <row r="770" ht="12.0" customHeight="1">
-      <c r="C770" s="14"/>
+      <c r="C770" s="21"/>
     </row>
     <row r="771" ht="12.0" customHeight="1">
-      <c r="C771" s="14"/>
+      <c r="C771" s="21"/>
     </row>
     <row r="772" ht="12.0" customHeight="1">
-      <c r="C772" s="14"/>
+      <c r="C772" s="21"/>
     </row>
     <row r="773" ht="12.0" customHeight="1">
-      <c r="C773" s="14"/>
+      <c r="C773" s="21"/>
     </row>
     <row r="774" ht="12.0" customHeight="1">
-      <c r="C774" s="14"/>
+      <c r="C774" s="21"/>
     </row>
     <row r="775" ht="12.0" customHeight="1">
-      <c r="C775" s="14"/>
+      <c r="C775" s="21"/>
     </row>
     <row r="776" ht="12.0" customHeight="1">
-      <c r="C776" s="14"/>
+      <c r="C776" s="21"/>
     </row>
     <row r="777" ht="12.0" customHeight="1">
-      <c r="C777" s="14"/>
+      <c r="C777" s="21"/>
     </row>
     <row r="778" ht="12.0" customHeight="1">
-      <c r="C778" s="14"/>
+      <c r="C778" s="21"/>
     </row>
     <row r="779" ht="12.0" customHeight="1">
-      <c r="C779" s="14"/>
+      <c r="C779" s="21"/>
     </row>
     <row r="780" ht="12.0" customHeight="1">
-      <c r="C780" s="14"/>
+      <c r="C780" s="21"/>
     </row>
     <row r="781" ht="12.0" customHeight="1">
-      <c r="C781" s="14"/>
+      <c r="C781" s="21"/>
     </row>
     <row r="782" ht="12.0" customHeight="1">
-      <c r="C782" s="14"/>
+      <c r="C782" s="21"/>
     </row>
     <row r="783" ht="12.0" customHeight="1">
-      <c r="C783" s="14"/>
+      <c r="C783" s="21"/>
     </row>
     <row r="784" ht="12.0" customHeight="1">
-      <c r="C784" s="14"/>
+      <c r="C784" s="21"/>
     </row>
     <row r="785" ht="12.0" customHeight="1">
-      <c r="C785" s="14"/>
+      <c r="C785" s="21"/>
     </row>
     <row r="786" ht="12.0" customHeight="1">
-      <c r="C786" s="14"/>
+      <c r="C786" s="21"/>
     </row>
     <row r="787" ht="12.0" customHeight="1">
-      <c r="C787" s="14"/>
+      <c r="C787" s="21"/>
     </row>
     <row r="788" ht="12.0" customHeight="1">
-      <c r="C788" s="14"/>
+      <c r="C788" s="21"/>
     </row>
     <row r="789" ht="12.0" customHeight="1">
-      <c r="C789" s="14"/>
+      <c r="C789" s="21"/>
     </row>
     <row r="790" ht="12.0" customHeight="1">
-      <c r="C790" s="14"/>
+      <c r="C790" s="21"/>
     </row>
     <row r="791" ht="12.0" customHeight="1">
-      <c r="C791" s="14"/>
+      <c r="C791" s="21"/>
     </row>
     <row r="792" ht="12.0" customHeight="1">
-      <c r="C792" s="14"/>
+      <c r="C792" s="21"/>
     </row>
     <row r="793" ht="12.0" customHeight="1">
-      <c r="C793" s="14"/>
+      <c r="C793" s="21"/>
     </row>
     <row r="794" ht="12.0" customHeight="1">
-      <c r="C794" s="14"/>
+      <c r="C794" s="21"/>
     </row>
     <row r="795" ht="12.0" customHeight="1">
-      <c r="C795" s="14"/>
+      <c r="C795" s="21"/>
     </row>
     <row r="796" ht="12.0" customHeight="1">
-      <c r="C796" s="14"/>
+      <c r="C796" s="21"/>
     </row>
     <row r="797" ht="12.0" customHeight="1">
-      <c r="C797" s="14"/>
+      <c r="C797" s="21"/>
     </row>
     <row r="798" ht="12.0" customHeight="1">
-      <c r="C798" s="14"/>
+      <c r="C798" s="21"/>
     </row>
     <row r="799" ht="12.0" customHeight="1">
-      <c r="C799" s="14"/>
+      <c r="C799" s="21"/>
     </row>
     <row r="800" ht="12.0" customHeight="1">
-      <c r="C800" s="14"/>
+      <c r="C800" s="21"/>
     </row>
     <row r="801" ht="12.0" customHeight="1">
-      <c r="C801" s="14"/>
+      <c r="C801" s="21"/>
     </row>
     <row r="802" ht="12.0" customHeight="1">
-      <c r="C802" s="14"/>
+      <c r="C802" s="21"/>
     </row>
     <row r="803" ht="12.0" customHeight="1">
-      <c r="C803" s="14"/>
+      <c r="C803" s="21"/>
     </row>
     <row r="804" ht="12.0" customHeight="1">
-      <c r="C804" s="14"/>
+      <c r="C804" s="21"/>
     </row>
     <row r="805" ht="12.0" customHeight="1">
-      <c r="C805" s="14"/>
+      <c r="C805" s="21"/>
     </row>
     <row r="806" ht="12.0" customHeight="1">
-      <c r="C806" s="14"/>
+      <c r="C806" s="21"/>
     </row>
     <row r="807" ht="12.0" customHeight="1">
-      <c r="C807" s="14"/>
+      <c r="C807" s="21"/>
     </row>
     <row r="808" ht="12.0" customHeight="1">
-      <c r="C808" s="14"/>
+      <c r="C808" s="21"/>
     </row>
     <row r="809" ht="12.0" customHeight="1">
-      <c r="C809" s="14"/>
+      <c r="C809" s="21"/>
     </row>
     <row r="810" ht="12.0" customHeight="1">
-      <c r="C810" s="14"/>
+      <c r="C810" s="21"/>
     </row>
     <row r="811" ht="12.0" customHeight="1">
-      <c r="C811" s="14"/>
+      <c r="C811" s="21"/>
     </row>
     <row r="812" ht="12.0" customHeight="1">
-      <c r="C812" s="14"/>
+      <c r="C812" s="21"/>
     </row>
     <row r="813" ht="12.0" customHeight="1">
-      <c r="C813" s="14"/>
+      <c r="C813" s="21"/>
     </row>
     <row r="814" ht="12.0" customHeight="1">
-      <c r="C814" s="14"/>
+      <c r="C814" s="21"/>
     </row>
     <row r="815" ht="12.0" customHeight="1">
-      <c r="C815" s="14"/>
+      <c r="C815" s="21"/>
     </row>
     <row r="816" ht="12.0" customHeight="1">
-      <c r="C816" s="14"/>
+      <c r="C816" s="21"/>
     </row>
     <row r="817" ht="12.0" customHeight="1">
-      <c r="C817" s="14"/>
+      <c r="C817" s="21"/>
     </row>
     <row r="818" ht="12.0" customHeight="1">
-      <c r="C818" s="14"/>
+      <c r="C818" s="21"/>
     </row>
     <row r="819" ht="12.0" customHeight="1">
-      <c r="C819" s="14"/>
+      <c r="C819" s="21"/>
     </row>
     <row r="820" ht="12.0" customHeight="1">
-      <c r="C820" s="14"/>
+      <c r="C820" s="21"/>
     </row>
     <row r="821" ht="12.0" customHeight="1">
-      <c r="C821" s="14"/>
+      <c r="C821" s="21"/>
     </row>
     <row r="822" ht="12.0" customHeight="1">
-      <c r="C822" s="14"/>
+      <c r="C822" s="21"/>
     </row>
     <row r="823" ht="12.0" customHeight="1">
-      <c r="C823" s="14"/>
+      <c r="C823" s="21"/>
     </row>
     <row r="824" ht="12.0" customHeight="1">
-      <c r="C824" s="14"/>
+      <c r="C824" s="21"/>
     </row>
     <row r="825" ht="12.0" customHeight="1">
-      <c r="C825" s="14"/>
+      <c r="C825" s="21"/>
     </row>
     <row r="826" ht="12.0" customHeight="1">
-      <c r="C826" s="14"/>
+      <c r="C826" s="21"/>
     </row>
     <row r="827" ht="12.0" customHeight="1">
-      <c r="C827" s="14"/>
+      <c r="C827" s="21"/>
     </row>
     <row r="828" ht="12.0" customHeight="1">
-      <c r="C828" s="14"/>
+      <c r="C828" s="21"/>
     </row>
     <row r="829" ht="12.0" customHeight="1">
-      <c r="C829" s="14"/>
+      <c r="C829" s="21"/>
     </row>
     <row r="830" ht="12.0" customHeight="1">
-      <c r="C830" s="14"/>
+      <c r="C830" s="21"/>
     </row>
     <row r="831" ht="12.0" customHeight="1">
-      <c r="C831" s="14"/>
+      <c r="C831" s="21"/>
     </row>
     <row r="832" ht="12.0" customHeight="1">
-      <c r="C832" s="14"/>
+      <c r="C832" s="21"/>
     </row>
     <row r="833" ht="12.0" customHeight="1">
-      <c r="C833" s="14"/>
+      <c r="C833" s="21"/>
     </row>
     <row r="834" ht="12.0" customHeight="1">
-      <c r="C834" s="14"/>
+      <c r="C834" s="21"/>
     </row>
     <row r="835" ht="12.0" customHeight="1">
-      <c r="C835" s="14"/>
+      <c r="C835" s="21"/>
     </row>
     <row r="836" ht="12.0" customHeight="1">
-      <c r="C836" s="14"/>
+      <c r="C836" s="21"/>
     </row>
     <row r="837" ht="12.0" customHeight="1">
-      <c r="C837" s="14"/>
+      <c r="C837" s="21"/>
     </row>
     <row r="838" ht="12.0" customHeight="1">
-      <c r="C838" s="14"/>
+      <c r="C838" s="21"/>
     </row>
     <row r="839" ht="12.0" customHeight="1">
-      <c r="C839" s="14"/>
+      <c r="C839" s="21"/>
     </row>
     <row r="840" ht="12.0" customHeight="1">
-      <c r="C840" s="14"/>
+      <c r="C840" s="21"/>
     </row>
     <row r="841" ht="12.0" customHeight="1">
-      <c r="C841" s="14"/>
+      <c r="C841" s="21"/>
     </row>
     <row r="842" ht="12.0" customHeight="1">
-      <c r="C842" s="14"/>
+      <c r="C842" s="21"/>
     </row>
     <row r="843" ht="12.0" customHeight="1">
-      <c r="C843" s="14"/>
+      <c r="C843" s="21"/>
     </row>
     <row r="844" ht="12.0" customHeight="1">
-      <c r="C844" s="14"/>
+      <c r="C844" s="21"/>
     </row>
     <row r="845" ht="12.0" customHeight="1">
-      <c r="C845" s="14"/>
+      <c r="C845" s="21"/>
     </row>
     <row r="846" ht="12.0" customHeight="1">
-      <c r="C846" s="14"/>
+      <c r="C846" s="21"/>
     </row>
     <row r="847" ht="12.0" customHeight="1">
-      <c r="C847" s="14"/>
+      <c r="C847" s="21"/>
     </row>
     <row r="848" ht="12.0" customHeight="1">
-      <c r="C848" s="14"/>
+      <c r="C848" s="21"/>
     </row>
     <row r="849" ht="12.0" customHeight="1">
-      <c r="C849" s="14"/>
+      <c r="C849" s="21"/>
     </row>
     <row r="850" ht="12.0" customHeight="1">
-      <c r="C850" s="14"/>
+      <c r="C850" s="21"/>
     </row>
     <row r="851" ht="12.0" customHeight="1">
-      <c r="C851" s="14"/>
+      <c r="C851" s="21"/>
     </row>
     <row r="852" ht="12.0" customHeight="1">
-      <c r="C852" s="14"/>
+      <c r="C852" s="21"/>
     </row>
     <row r="853" ht="12.0" customHeight="1">
-      <c r="C853" s="14"/>
+      <c r="C853" s="21"/>
     </row>
     <row r="854" ht="12.0" customHeight="1">
-      <c r="C854" s="14"/>
+      <c r="C854" s="21"/>
     </row>
     <row r="855" ht="12.0" customHeight="1">
-      <c r="C855" s="14"/>
+      <c r="C855" s="21"/>
     </row>
     <row r="856" ht="12.0" customHeight="1">
-      <c r="C856" s="14"/>
+      <c r="C856" s="21"/>
     </row>
     <row r="857" ht="12.0" customHeight="1">
-      <c r="C857" s="14"/>
+      <c r="C857" s="21"/>
     </row>
     <row r="858" ht="12.0" customHeight="1">
-      <c r="C858" s="14"/>
+      <c r="C858" s="21"/>
     </row>
     <row r="859" ht="12.0" customHeight="1">
-      <c r="C859" s="14"/>
+      <c r="C859" s="21"/>
     </row>
     <row r="860" ht="12.0" customHeight="1">
-      <c r="C860" s="14"/>
+      <c r="C860" s="21"/>
     </row>
     <row r="861" ht="12.0" customHeight="1">
-      <c r="C861" s="14"/>
+      <c r="C861" s="21"/>
     </row>
     <row r="862" ht="12.0" customHeight="1">
-      <c r="C862" s="14"/>
+      <c r="C862" s="21"/>
     </row>
     <row r="863" ht="12.0" customHeight="1">
-      <c r="C863" s="14"/>
+      <c r="C863" s="21"/>
     </row>
     <row r="864" ht="12.0" customHeight="1">
-      <c r="C864" s="14"/>
+      <c r="C864" s="21"/>
     </row>
     <row r="865" ht="12.0" customHeight="1">
-      <c r="C865" s="14"/>
+      <c r="C865" s="21"/>
     </row>
     <row r="866" ht="12.0" customHeight="1">
-      <c r="C866" s="14"/>
+      <c r="C866" s="21"/>
     </row>
     <row r="867" ht="12.0" customHeight="1">
-      <c r="C867" s="14"/>
+      <c r="C867" s="21"/>
     </row>
     <row r="868" ht="12.0" customHeight="1">
-      <c r="C868" s="14"/>
+      <c r="C868" s="21"/>
     </row>
     <row r="869" ht="12.0" customHeight="1">
-      <c r="C869" s="14"/>
+      <c r="C869" s="21"/>
     </row>
     <row r="870" ht="12.0" customHeight="1">
-      <c r="C870" s="14"/>
+      <c r="C870" s="21"/>
     </row>
     <row r="871" ht="12.0" customHeight="1">
-      <c r="C871" s="14"/>
+      <c r="C871" s="21"/>
     </row>
     <row r="872" ht="12.0" customHeight="1">
-      <c r="C872" s="14"/>
+      <c r="C872" s="21"/>
     </row>
     <row r="873" ht="12.0" customHeight="1">
-      <c r="C873" s="14"/>
+      <c r="C873" s="21"/>
     </row>
     <row r="874" ht="12.0" customHeight="1">
-      <c r="C874" s="14"/>
+      <c r="C874" s="21"/>
     </row>
     <row r="875" ht="12.0" customHeight="1">
-      <c r="C875" s="14"/>
+      <c r="C875" s="21"/>
     </row>
     <row r="876" ht="12.0" customHeight="1">
-      <c r="C876" s="14"/>
+      <c r="C876" s="21"/>
     </row>
     <row r="877" ht="12.0" customHeight="1">
-      <c r="C877" s="14"/>
+      <c r="C877" s="21"/>
     </row>
     <row r="878" ht="12.0" customHeight="1">
-      <c r="C878" s="14"/>
+      <c r="C878" s="21"/>
     </row>
     <row r="879" ht="12.0" customHeight="1">
-      <c r="C879" s="14"/>
+      <c r="C879" s="21"/>
     </row>
     <row r="880" ht="12.0" customHeight="1">
-      <c r="C880" s="14"/>
+      <c r="C880" s="21"/>
     </row>
     <row r="881" ht="12.0" customHeight="1">
-      <c r="C881" s="14"/>
+      <c r="C881" s="21"/>
     </row>
     <row r="882" ht="12.0" customHeight="1">
-      <c r="C882" s="14"/>
+      <c r="C882" s="21"/>
     </row>
     <row r="883" ht="12.0" customHeight="1">
-      <c r="C883" s="14"/>
+      <c r="C883" s="21"/>
     </row>
     <row r="884" ht="12.0" customHeight="1">
-      <c r="C884" s="14"/>
+      <c r="C884" s="21"/>
     </row>
     <row r="885" ht="12.0" customHeight="1">
-      <c r="C885" s="14"/>
+      <c r="C885" s="21"/>
     </row>
     <row r="886" ht="12.0" customHeight="1">
-      <c r="C886" s="14"/>
+      <c r="C886" s="21"/>
     </row>
     <row r="887" ht="12.0" customHeight="1">
-      <c r="C887" s="14"/>
+      <c r="C887" s="21"/>
     </row>
     <row r="888" ht="12.0" customHeight="1">
-      <c r="C888" s="14"/>
+      <c r="C888" s="21"/>
     </row>
     <row r="889" ht="12.0" customHeight="1">
-      <c r="C889" s="14"/>
+      <c r="C889" s="21"/>
     </row>
     <row r="890" ht="12.0" customHeight="1">
-      <c r="C890" s="14"/>
+      <c r="C890" s="21"/>
     </row>
     <row r="891" ht="12.0" customHeight="1">
-      <c r="C891" s="14"/>
+      <c r="C891" s="21"/>
     </row>
     <row r="892" ht="12.0" customHeight="1">
-      <c r="C892" s="14"/>
+      <c r="C892" s="21"/>
     </row>
     <row r="893" ht="12.0" customHeight="1">
-      <c r="C893" s="14"/>
+      <c r="C893" s="21"/>
     </row>
     <row r="894" ht="12.0" customHeight="1">
-      <c r="C894" s="14"/>
+      <c r="C894" s="21"/>
     </row>
     <row r="895" ht="12.0" customHeight="1">
-      <c r="C895" s="14"/>
+      <c r="C895" s="21"/>
     </row>
     <row r="896" ht="12.0" customHeight="1">
-      <c r="C896" s="14"/>
+      <c r="C896" s="21"/>
     </row>
     <row r="897" ht="12.0" customHeight="1">
-      <c r="C897" s="14"/>
+      <c r="C897" s="21"/>
     </row>
     <row r="898" ht="12.0" customHeight="1">
-      <c r="C898" s="14"/>
+      <c r="C898" s="21"/>
     </row>
     <row r="899" ht="12.0" customHeight="1">
-      <c r="C899" s="14"/>
+      <c r="C899" s="21"/>
     </row>
     <row r="900" ht="12.0" customHeight="1">
-      <c r="C900" s="14"/>
+      <c r="C900" s="21"/>
     </row>
     <row r="901" ht="12.0" customHeight="1">
-      <c r="C901" s="14"/>
+      <c r="C901" s="21"/>
     </row>
     <row r="902" ht="12.0" customHeight="1">
-      <c r="C902" s="14"/>
+      <c r="C902" s="21"/>
     </row>
     <row r="903" ht="12.0" customHeight="1">
-      <c r="C903" s="14"/>
+      <c r="C903" s="21"/>
     </row>
     <row r="904" ht="12.0" customHeight="1">
-      <c r="C904" s="14"/>
+      <c r="C904" s="21"/>
     </row>
     <row r="905" ht="12.0" customHeight="1">
-      <c r="C905" s="14"/>
+      <c r="C905" s="21"/>
     </row>
     <row r="906" ht="12.0" customHeight="1">
-      <c r="C906" s="14"/>
+      <c r="C906" s="21"/>
     </row>
     <row r="907" ht="12.0" customHeight="1">
-      <c r="C907" s="14"/>
+      <c r="C907" s="21"/>
     </row>
     <row r="908" ht="12.0" customHeight="1">
-      <c r="C908" s="14"/>
+      <c r="C908" s="21"/>
     </row>
     <row r="909" ht="12.0" customHeight="1">
-      <c r="C909" s="14"/>
+      <c r="C909" s="21"/>
     </row>
     <row r="910" ht="12.0" customHeight="1">
-      <c r="C910" s="14"/>
+      <c r="C910" s="21"/>
     </row>
     <row r="911" ht="12.0" customHeight="1">
-      <c r="C911" s="14"/>
+      <c r="C911" s="21"/>
     </row>
     <row r="912" ht="12.0" customHeight="1">
-      <c r="C912" s="14"/>
+      <c r="C912" s="21"/>
     </row>
     <row r="913" ht="12.0" customHeight="1">
-      <c r="C913" s="14"/>
+      <c r="C913" s="21"/>
     </row>
     <row r="914" ht="12.0" customHeight="1">
-      <c r="C914" s="14"/>
+      <c r="C914" s="21"/>
     </row>
     <row r="915" ht="12.0" customHeight="1">
-      <c r="C915" s="14"/>
+      <c r="C915" s="21"/>
     </row>
     <row r="916" ht="12.0" customHeight="1">
-      <c r="C916" s="14"/>
+      <c r="C916" s="21"/>
     </row>
     <row r="917" ht="12.0" customHeight="1">
-      <c r="C917" s="14"/>
+      <c r="C917" s="21"/>
     </row>
     <row r="918" ht="12.0" customHeight="1">
-      <c r="C918" s="14"/>
+      <c r="C918" s="21"/>
     </row>
     <row r="919" ht="12.0" customHeight="1">
-      <c r="C919" s="14"/>
+      <c r="C919" s="21"/>
     </row>
     <row r="920" ht="12.0" customHeight="1">
-      <c r="C920" s="14"/>
+      <c r="C920" s="21"/>
     </row>
     <row r="921" ht="12.0" customHeight="1">
-      <c r="C921" s="14"/>
+      <c r="C921" s="21"/>
     </row>
     <row r="922" ht="12.0" customHeight="1">
-      <c r="C922" s="14"/>
+      <c r="C922" s="21"/>
     </row>
     <row r="923" ht="12.0" customHeight="1">
-      <c r="C923" s="14"/>
+      <c r="C923" s="21"/>
     </row>
     <row r="924" ht="12.0" customHeight="1">
-      <c r="C924" s="14"/>
+      <c r="C924" s="21"/>
     </row>
     <row r="925" ht="12.0" customHeight="1">
-      <c r="C925" s="14"/>
+      <c r="C925" s="21"/>
     </row>
     <row r="926" ht="12.0" customHeight="1">
-      <c r="C926" s="14"/>
+      <c r="C926" s="21"/>
     </row>
     <row r="927" ht="12.0" customHeight="1">
-      <c r="C927" s="14"/>
+      <c r="C927" s="21"/>
     </row>
     <row r="928" ht="12.0" customHeight="1">
-      <c r="C928" s="14"/>
+      <c r="C928" s="21"/>
     </row>
     <row r="929" ht="12.0" customHeight="1">
-      <c r="C929" s="14"/>
+      <c r="C929" s="21"/>
     </row>
     <row r="930" ht="12.0" customHeight="1">
-      <c r="C930" s="14"/>
+      <c r="C930" s="21"/>
     </row>
     <row r="931" ht="12.0" customHeight="1">
-      <c r="C931" s="14"/>
+      <c r="C931" s="21"/>
     </row>
     <row r="932" ht="12.0" customHeight="1">
-      <c r="C932" s="14"/>
+      <c r="C932" s="21"/>
     </row>
     <row r="933" ht="12.0" customHeight="1">
-      <c r="C933" s="14"/>
+      <c r="C933" s="21"/>
     </row>
     <row r="934" ht="12.0" customHeight="1">
-      <c r="C934" s="14"/>
+      <c r="C934" s="21"/>
     </row>
     <row r="935" ht="12.0" customHeight="1">
-      <c r="C935" s="14"/>
+      <c r="C935" s="21"/>
     </row>
     <row r="936" ht="12.0" customHeight="1">
-      <c r="C936" s="14"/>
+      <c r="C936" s="21"/>
     </row>
     <row r="937" ht="12.0" customHeight="1">
-      <c r="C937" s="14"/>
+      <c r="C937" s="21"/>
     </row>
     <row r="938" ht="12.0" customHeight="1">
-      <c r="C938" s="14"/>
+      <c r="C938" s="21"/>
     </row>
     <row r="939" ht="12.0" customHeight="1">
-      <c r="C939" s="14"/>
+      <c r="C939" s="21"/>
     </row>
     <row r="940" ht="12.0" customHeight="1">
-      <c r="C940" s="14"/>
+      <c r="C940" s="21"/>
     </row>
     <row r="941" ht="12.0" customHeight="1">
-      <c r="C941" s="14"/>
+      <c r="C941" s="21"/>
     </row>
     <row r="942" ht="12.0" customHeight="1">
-      <c r="C942" s="14"/>
+      <c r="C942" s="21"/>
     </row>
     <row r="943" ht="12.0" customHeight="1">
-      <c r="C943" s="14"/>
+      <c r="C943" s="21"/>
     </row>
     <row r="944" ht="12.0" customHeight="1">
-      <c r="C944" s="14"/>
+      <c r="C944" s="21"/>
     </row>
     <row r="945" ht="12.0" customHeight="1">
-      <c r="C945" s="14"/>
+      <c r="C945" s="21"/>
     </row>
     <row r="946" ht="12.0" customHeight="1">
-      <c r="C946" s="14"/>
+      <c r="C946" s="21"/>
     </row>
     <row r="947" ht="12.0" customHeight="1">
-      <c r="C947" s="14"/>
+      <c r="C947" s="21"/>
     </row>
     <row r="948" ht="12.0" customHeight="1">
-      <c r="C948" s="14"/>
+      <c r="C948" s="21"/>
     </row>
     <row r="949" ht="12.0" customHeight="1">
-      <c r="C949" s="14"/>
+      <c r="C949" s="21"/>
     </row>
     <row r="950" ht="12.0" customHeight="1">
-      <c r="C950" s="14"/>
+      <c r="C950" s="21"/>
     </row>
     <row r="951" ht="12.0" customHeight="1">
-      <c r="C951" s="14"/>
+      <c r="C951" s="21"/>
     </row>
     <row r="952" ht="12.0" customHeight="1">
-      <c r="C952" s="14"/>
+      <c r="C952" s="21"/>
     </row>
     <row r="953" ht="12.0" customHeight="1">
-      <c r="C953" s="14"/>
+      <c r="C953" s="21"/>
     </row>
     <row r="954" ht="12.0" customHeight="1">
-      <c r="C954" s="14"/>
+      <c r="C954" s="21"/>
     </row>
     <row r="955" ht="12.0" customHeight="1">
-      <c r="C955" s="14"/>
+      <c r="C955" s="21"/>
     </row>
     <row r="956" ht="12.0" customHeight="1">
-      <c r="C956" s="14"/>
+      <c r="C956" s="21"/>
     </row>
     <row r="957" ht="12.0" customHeight="1">
-      <c r="C957" s="14"/>
+      <c r="C957" s="21"/>
     </row>
     <row r="958" ht="12.0" customHeight="1">
-      <c r="C958" s="14"/>
+      <c r="C958" s="21"/>
     </row>
     <row r="959" ht="12.0" customHeight="1">
-      <c r="C959" s="14"/>
+      <c r="C959" s="21"/>
     </row>
     <row r="960" ht="12.0" customHeight="1">
-      <c r="C960" s="14"/>
+      <c r="C960" s="21"/>
     </row>
     <row r="961" ht="12.0" customHeight="1">
-      <c r="C961" s="14"/>
+      <c r="C961" s="21"/>
     </row>
     <row r="962" ht="12.0" customHeight="1">
-      <c r="C962" s="14"/>
+      <c r="C962" s="21"/>
     </row>
     <row r="963" ht="12.0" customHeight="1">
-      <c r="C963" s="14"/>
+      <c r="C963" s="21"/>
     </row>
     <row r="964" ht="12.0" customHeight="1">
-      <c r="C964" s="14"/>
+      <c r="C964" s="21"/>
     </row>
     <row r="965" ht="12.0" customHeight="1">
-      <c r="C965" s="14"/>
+      <c r="C965" s="21"/>
     </row>
     <row r="966" ht="12.0" customHeight="1">
-      <c r="C966" s="14"/>
+      <c r="C966" s="21"/>
     </row>
     <row r="967" ht="12.0" customHeight="1">
-      <c r="C967" s="14"/>
+      <c r="C967" s="21"/>
     </row>
     <row r="968" ht="12.0" customHeight="1">
-      <c r="C968" s="14"/>
+      <c r="C968" s="21"/>
     </row>
     <row r="969" ht="12.0" customHeight="1">
-      <c r="C969" s="14"/>
+      <c r="C969" s="21"/>
     </row>
     <row r="970" ht="12.0" customHeight="1">
-      <c r="C970" s="14"/>
+      <c r="C970" s="21"/>
     </row>
     <row r="971" ht="12.0" customHeight="1">
-      <c r="C971" s="14"/>
+      <c r="C971" s="21"/>
     </row>
     <row r="972" ht="12.0" customHeight="1">
-      <c r="C972" s="14"/>
+      <c r="C972" s="21"/>
     </row>
     <row r="973" ht="12.0" customHeight="1">
-      <c r="C973" s="14"/>
-    </row>
-    <row r="974" ht="12.0" customHeight="1">
-      <c r="C974" s="14"/>
-    </row>
-    <row r="975" ht="12.0" customHeight="1">
-      <c r="C975" s="14"/>
-    </row>
-    <row r="976" ht="12.0" customHeight="1">
-      <c r="C976" s="14"/>
-    </row>
-    <row r="977" ht="12.0" customHeight="1">
-      <c r="C977" s="14"/>
-    </row>
-    <row r="978" ht="12.0" customHeight="1">
-      <c r="C978" s="14"/>
-    </row>
-    <row r="979" ht="12.0" customHeight="1">
-      <c r="C979" s="14"/>
-    </row>
-    <row r="980" ht="12.0" customHeight="1">
-      <c r="C980" s="14"/>
-    </row>
-    <row r="981" ht="12.0" customHeight="1">
-      <c r="C981" s="14"/>
-    </row>
-    <row r="982" ht="12.0" customHeight="1">
-      <c r="C982" s="14"/>
-    </row>
-    <row r="983" ht="12.0" customHeight="1">
-      <c r="C983" s="14"/>
-    </row>
-    <row r="984" ht="12.0" customHeight="1">
-      <c r="C984" s="14"/>
+      <c r="C973" s="21"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
